--- a/source/build_research/build_research_original.xlsx
+++ b/source/build_research/build_research_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Homeworld-Classic-Enhanced-for-HWRM\source\build_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF01675-1915-4176-92AC-CAB4F520A5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543B8B40-9C7F-4A2E-840F-1C936498F974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="876" yWindow="-108" windowWidth="22272" windowHeight="14616" activeTab="3" xr2:uid="{1B4CECF4-61E4-4336-AF58-5E943C1A6B01}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12799" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12798" uniqueCount="1088">
   <si>
     <t>ShortDisplayedName</t>
   </si>
@@ -3373,147 +3373,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1766">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1759">
     <dxf>
       <font>
         <color theme="9"/>
@@ -15391,6 +15251,76 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -30336,1145 +30266,1145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AU1:XFD2 AU7:XFD11 AU109:XFD110 C109:AP110 AH68:AH69 AU86:XFD104 C86:AP104 I60:J60 R59 R60:S70 X59:Y62 AD70:AE70 AD1:AF6 AH6:XFD6 AJ12:XFD12 AJ7:AP11 AH1:AH5 AM1:AN5 AP64:AP67 AP68:AQ70 C1:I12 AH7:AH17 F13:I31 L6:R12 U59:V62 U36:V36 X36:AA36 U63:Y70 U1:AA5 AD29:AF36 AD7:AE28 AG60:AH67 AG70:AH70 AJ59:AN60 AH29:XFD35 AH22:AH28 AJ22:AK28 AP1:AP2 AP3:AQ5 AH18:AQ21 AS18:XFD21 AP58:AQ63 AS59:XFD62 AV63:XFD70 AV22:XFD28 AV13:XFD17 O59:P70 L29:R36 L22:M28 O22:R28 L18:R21 L16:M17 O13:R17 L1:M5 O1:R5 AA60:AB70 AA59 U30:Y35 AA30:AA35 U22:AA29 U18:Y21 AA18:AA21 U7:AA17 U6:Y6 AA6 AJ63:AK70 AM63:AN70 AM22:AQ28 AJ13:AT17 AJ1:AK5 AP36:AT36 AS63:AT63 AS68:AT70 AP37:AQ43 AS37:AT43 AS58:AT58 AS22:AT28 AS3:XFD5 C13:D70 F32:G70 I32:I59 AP44:AP57 AH36:AH59 AV36:XFD58 L37:M70 O37:R58 AJ36:AK58 AM36:AN58 AD37:AE67 U37:AA58 A105:XFD108 A111:XFD1048576 A71:XFD85 L13:L15 I62:J70 I61 AJ62:AN62 AJ61:AM61">
-    <cfRule type="containsText" dxfId="1765" priority="324" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1758" priority="324" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1764" priority="325" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1757" priority="325" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1763" priority="326" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1756" priority="326" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1762" priority="327" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1755" priority="327" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD68:AE69 AG68:AG69">
-    <cfRule type="containsText" dxfId="1761" priority="320" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1754" priority="320" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AD68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1760" priority="321" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1753" priority="321" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AD68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1759" priority="322" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1752" priority="322" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AD68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1758" priority="323" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1751" priority="323" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AD68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J17 J22:J35 J18:K21 J36:K36 J37:J59">
-    <cfRule type="containsText" dxfId="1757" priority="316" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1750" priority="316" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1756" priority="317" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1749" priority="317" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1755" priority="318" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1748" priority="318" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1754" priority="319" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1747" priority="319" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S59">
-    <cfRule type="containsText" dxfId="1753" priority="312" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1746" priority="312" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1752" priority="313" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1745" priority="313" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1751" priority="314" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1744" priority="314" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1750" priority="315" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1743" priority="315" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AB12 AB16:AB59">
-    <cfRule type="containsText" dxfId="1749" priority="308" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1742" priority="308" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1748" priority="309" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1741" priority="309" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1747" priority="310" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1740" priority="310" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1746" priority="311" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1739" priority="311" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG59">
-    <cfRule type="containsText" dxfId="1745" priority="304" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1738" priority="304" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AG1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1744" priority="305" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1737" priority="305" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AG1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1743" priority="306" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1736" priority="306" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AG1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1742" priority="307" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1735" priority="307" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E70">
-    <cfRule type="containsText" dxfId="1741" priority="300" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1734" priority="300" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1740" priority="301" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1733" priority="301" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1739" priority="302" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1732" priority="302" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1738" priority="303" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1731" priority="303" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H70">
-    <cfRule type="containsText" dxfId="1737" priority="296" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1730" priority="296" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",H32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1736" priority="297" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1729" priority="297" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",H32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1735" priority="298" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1728" priority="298" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",H32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1734" priority="299" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1727" priority="299" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K5">
-    <cfRule type="containsText" dxfId="1733" priority="292" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1726" priority="292" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1732" priority="293" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1725" priority="293" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1731" priority="294" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1724" priority="294" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1730" priority="295" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1723" priority="295" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:K28">
-    <cfRule type="containsText" dxfId="1729" priority="288" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1722" priority="288" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1728" priority="289" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1721" priority="289" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1727" priority="290" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1720" priority="290" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1726" priority="291" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1719" priority="291" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:K58">
-    <cfRule type="containsText" dxfId="1725" priority="284" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1718" priority="284" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1724" priority="285" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1717" priority="285" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1723" priority="286" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1716" priority="286" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1722" priority="287" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1715" priority="287" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K70">
-    <cfRule type="containsText" dxfId="1721" priority="280" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1714" priority="280" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1720" priority="281" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1713" priority="281" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1719" priority="282" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1712" priority="282" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1718" priority="283" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1711" priority="283" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59:N62">
-    <cfRule type="containsText" dxfId="1717" priority="276" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1710" priority="276" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1716" priority="277" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1709" priority="277" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1715" priority="278" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1708" priority="278" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1714" priority="279" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1707" priority="279" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q59:Q70">
-    <cfRule type="containsText" dxfId="1713" priority="272" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1706" priority="272" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Q59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1712" priority="273" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1705" priority="273" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Q59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1711" priority="274" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1704" priority="274" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Q59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1710" priority="275" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1703" priority="275" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Q59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T6">
-    <cfRule type="containsText" dxfId="1709" priority="268" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1702" priority="268" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1708" priority="269" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1701" priority="269" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1707" priority="270" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1700" priority="270" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1706" priority="271" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1699" priority="271" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T17">
-    <cfRule type="containsText" dxfId="1705" priority="264" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1698" priority="264" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1704" priority="265" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1697" priority="265" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1703" priority="266" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1696" priority="266" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1702" priority="267" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1695" priority="267" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:T28">
-    <cfRule type="containsText" dxfId="1701" priority="260" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1694" priority="260" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1700" priority="261" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1693" priority="261" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1699" priority="262" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1692" priority="262" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1698" priority="263" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1691" priority="263" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:T35">
-    <cfRule type="containsText" dxfId="1697" priority="256" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1690" priority="256" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1696" priority="257" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1689" priority="257" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1695" priority="258" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1688" priority="258" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1694" priority="259" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1687" priority="259" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36:T58">
-    <cfRule type="containsText" dxfId="1693" priority="252" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1686" priority="252" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1692" priority="253" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1685" priority="253" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1691" priority="254" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1684" priority="254" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1690" priority="255" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1683" priority="255" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T63:T70">
-    <cfRule type="containsText" dxfId="1689" priority="248" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1682" priority="248" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1688" priority="249" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1681" priority="249" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1687" priority="250" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1680" priority="250" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1686" priority="251" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1679" priority="251" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W59:W62">
-    <cfRule type="containsText" dxfId="1685" priority="244" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1678" priority="244" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",W59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1684" priority="245" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1677" priority="245" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",W59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1683" priority="246" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1676" priority="246" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",W59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1682" priority="247" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1675" priority="247" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",W59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z63:Z70">
-    <cfRule type="containsText" dxfId="1681" priority="240" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1674" priority="240" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1680" priority="241" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1673" priority="241" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1679" priority="242" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1672" priority="242" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1678" priority="243" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1671" priority="243" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="containsText" dxfId="1677" priority="236" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1670" priority="236" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1676" priority="237" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1669" priority="237" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1675" priority="238" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1668" priority="238" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1674" priority="239" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1667" priority="239" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13:AC17">
-    <cfRule type="containsText" dxfId="1673" priority="232" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1666" priority="232" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1672" priority="233" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1665" priority="233" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1671" priority="234" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1664" priority="234" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1670" priority="235" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1663" priority="235" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC22:AC28">
-    <cfRule type="containsText" dxfId="1669" priority="228" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1662" priority="228" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1668" priority="229" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1661" priority="229" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1667" priority="230" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1660" priority="230" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1666" priority="231" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1659" priority="231" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29:AC35">
-    <cfRule type="containsText" dxfId="1665" priority="224" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1658" priority="224" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1664" priority="225" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1657" priority="225" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1663" priority="226" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1656" priority="226" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1662" priority="227" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1655" priority="227" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC37:AC58">
-    <cfRule type="containsText" dxfId="1661" priority="220" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1654" priority="220" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1660" priority="221" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1653" priority="221" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1659" priority="222" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1652" priority="222" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1658" priority="223" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1651" priority="223" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC63:AC70">
-    <cfRule type="containsText" dxfId="1657" priority="216" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1650" priority="216" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1656" priority="217" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1649" priority="217" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1655" priority="218" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1648" priority="218" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1654" priority="219" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1647" priority="219" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AI12">
-    <cfRule type="containsText" dxfId="1653" priority="212" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1646" priority="212" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1652" priority="213" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1645" priority="213" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1651" priority="214" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1644" priority="214" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1650" priority="215" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1643" priority="215" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI59:AI62">
-    <cfRule type="containsText" dxfId="1649" priority="208" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1642" priority="208" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1648" priority="209" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1641" priority="209" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1647" priority="210" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1640" priority="210" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1646" priority="211" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1639" priority="211" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AL5">
-    <cfRule type="containsText" dxfId="1645" priority="204" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1638" priority="204" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AL1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1644" priority="205" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1637" priority="205" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AL1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1643" priority="206" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1636" priority="206" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AL1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1642" priority="207" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1635" priority="207" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AL1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO37:AO70">
-    <cfRule type="containsText" dxfId="1641" priority="200" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1634" priority="200" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1640" priority="201" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1633" priority="201" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1639" priority="202" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1632" priority="202" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1638" priority="203" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1631" priority="203" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K17">
-    <cfRule type="containsText" dxfId="1637" priority="196" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1630" priority="196" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1636" priority="197" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1629" priority="197" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1635" priority="198" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1628" priority="198" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1634" priority="199" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1627" priority="199" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC12">
-    <cfRule type="containsText" dxfId="1633" priority="192" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1626" priority="192" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1632" priority="193" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1625" priority="193" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1631" priority="194" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1624" priority="194" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1630" priority="195" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1623" priority="195" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K12">
-    <cfRule type="containsText" dxfId="1629" priority="188" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1622" priority="188" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1628" priority="189" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1621" priority="189" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1627" priority="190" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1620" priority="190" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1626" priority="191" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1619" priority="191" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K35">
-    <cfRule type="containsText" dxfId="1625" priority="184" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1618" priority="184" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1624" priority="185" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1617" priority="185" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1623" priority="186" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1616" priority="186" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1622" priority="187" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1615" priority="187" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T59:T62">
-    <cfRule type="containsText" dxfId="1621" priority="180" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1614" priority="180" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1620" priority="181" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1613" priority="181" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1619" priority="182" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1612" priority="182" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1618" priority="183" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1611" priority="183" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="containsText" dxfId="1617" priority="176" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1610" priority="176" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1616" priority="177" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1609" priority="177" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1615" priority="178" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1608" priority="178" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1614" priority="179" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1607" priority="179" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:T21">
-    <cfRule type="containsText" dxfId="1613" priority="172" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1606" priority="172" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1612" priority="173" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1605" priority="173" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1611" priority="174" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1604" priority="174" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1610" priority="175" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1603" priority="175" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T12">
-    <cfRule type="containsText" dxfId="1609" priority="168" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1602" priority="168" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1608" priority="169" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1601" priority="169" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1607" priority="170" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1600" priority="170" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1606" priority="171" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1599" priority="171" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="containsText" dxfId="1605" priority="164" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1598" priority="164" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",W36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1604" priority="165" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1597" priority="165" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",W36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1603" priority="166" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1596" priority="166" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",W36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1602" priority="167" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1595" priority="167" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",W36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AC5">
-    <cfRule type="containsText" dxfId="1601" priority="160" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1594" priority="160" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1600" priority="161" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1593" priority="161" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1599" priority="162" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1592" priority="162" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1598" priority="163" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1591" priority="163" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC18:AC21">
-    <cfRule type="containsText" dxfId="1597" priority="156" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1590" priority="156" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1596" priority="157" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1589" priority="157" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1595" priority="158" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1588" priority="158" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1594" priority="159" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1587" priority="159" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC36">
-    <cfRule type="containsText" dxfId="1593" priority="152" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1586" priority="152" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1592" priority="153" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1585" priority="153" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1591" priority="154" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1584" priority="154" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1590" priority="155" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1583" priority="155" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC59:AC62">
-    <cfRule type="containsText" dxfId="1589" priority="148" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1582" priority="148" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1588" priority="149" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1581" priority="149" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1587" priority="150" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1580" priority="150" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1586" priority="151" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1579" priority="151" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF7:AF12">
-    <cfRule type="containsText" dxfId="1585" priority="144" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1578" priority="144" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AF7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1584" priority="145" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1577" priority="145" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AF7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1583" priority="146" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1576" priority="146" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AF7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1582" priority="147" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1575" priority="147" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AF7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF13:AF17">
-    <cfRule type="containsText" dxfId="1581" priority="140" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1574" priority="140" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AF13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1580" priority="141" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1573" priority="141" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AF13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1579" priority="142" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1572" priority="142" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AF13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1578" priority="143" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1571" priority="143" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AF13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF18:AF21">
-    <cfRule type="containsText" dxfId="1577" priority="136" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1570" priority="136" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AF18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1576" priority="137" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1569" priority="137" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AF18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1575" priority="138" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1568" priority="138" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AF18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1574" priority="139" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1567" priority="139" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AF18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF22:AF28">
-    <cfRule type="containsText" dxfId="1573" priority="132" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1566" priority="132" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AF22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1572" priority="133" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1565" priority="133" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AF22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1571" priority="134" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1564" priority="134" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AF22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1570" priority="135" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1563" priority="135" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AF22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF37:AF70">
-    <cfRule type="containsText" dxfId="1569" priority="128" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1562" priority="128" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AF37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1568" priority="129" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1561" priority="129" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AF37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1567" priority="130" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1560" priority="130" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AF37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1566" priority="131" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1559" priority="131" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AF37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI63:AI70">
-    <cfRule type="containsText" dxfId="1565" priority="124" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1558" priority="124" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1564" priority="125" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1557" priority="125" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1563" priority="126" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1556" priority="126" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1562" priority="127" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1555" priority="127" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36:AI58">
-    <cfRule type="containsText" dxfId="1561" priority="120" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1554" priority="120" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1560" priority="121" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1553" priority="121" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1559" priority="122" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1552" priority="122" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1558" priority="123" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1551" priority="123" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AI28">
-    <cfRule type="containsText" dxfId="1557" priority="116" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1550" priority="116" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1556" priority="117" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1549" priority="117" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1555" priority="118" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1548" priority="118" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1554" priority="119" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1547" priority="119" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO1:AO5">
-    <cfRule type="containsText" dxfId="1553" priority="112" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1546" priority="112" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1552" priority="113" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1545" priority="113" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1551" priority="114" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1544" priority="114" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1550" priority="115" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1543" priority="115" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR18:AR21">
-    <cfRule type="containsText" dxfId="1549" priority="108" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1542" priority="108" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AR18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1548" priority="109" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1541" priority="109" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AR18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1547" priority="110" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1540" priority="110" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AR18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1546" priority="111" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1539" priority="111" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AR18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR59:AR62">
-    <cfRule type="containsText" dxfId="1545" priority="104" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1538" priority="104" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AR59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1544" priority="105" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1537" priority="105" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AR59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1543" priority="106" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1536" priority="106" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AR59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1542" priority="107" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1535" priority="107" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AR59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU63:AU70">
-    <cfRule type="containsText" dxfId="1541" priority="100" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1534" priority="100" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1540" priority="101" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1533" priority="101" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1539" priority="102" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1532" priority="102" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1538" priority="103" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1531" priority="103" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AU58">
-    <cfRule type="containsText" dxfId="1537" priority="96" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1530" priority="96" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1536" priority="97" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1529" priority="97" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1535" priority="98" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1528" priority="98" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1534" priority="99" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1527" priority="99" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU22:AU28">
-    <cfRule type="containsText" dxfId="1533" priority="92" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1526" priority="92" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1532" priority="93" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1525" priority="93" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1531" priority="94" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1524" priority="94" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1530" priority="95" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1523" priority="95" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU13:AU17">
-    <cfRule type="containsText" dxfId="1529" priority="88" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1522" priority="88" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1528" priority="89" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1521" priority="89" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1527" priority="90" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1520" priority="90" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1526" priority="91" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1519" priority="91" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K62">
-    <cfRule type="containsText" dxfId="1525" priority="84" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1518" priority="84" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1524" priority="85" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1517" priority="85" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1523" priority="86" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1516" priority="86" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1522" priority="87" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1515" priority="87" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63:N70">
-    <cfRule type="containsText" dxfId="1521" priority="80" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1514" priority="80" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1520" priority="81" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1513" priority="81" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1519" priority="82" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1512" priority="82" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1518" priority="83" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1511" priority="83" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:N58">
-    <cfRule type="containsText" dxfId="1517" priority="76" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1510" priority="76" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1516" priority="77" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1509" priority="77" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1515" priority="78" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1508" priority="78" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1514" priority="79" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1507" priority="79" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N28">
-    <cfRule type="containsText" dxfId="1513" priority="72" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1506" priority="72" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1512" priority="73" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1505" priority="73" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1511" priority="74" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1504" priority="74" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1510" priority="75" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1503" priority="75" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N17">
-    <cfRule type="containsText" dxfId="1509" priority="68" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1502" priority="68" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1508" priority="69" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1501" priority="69" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1507" priority="70" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1500" priority="70" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1506" priority="71" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1499" priority="71" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N5">
-    <cfRule type="containsText" dxfId="1505" priority="64" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1498" priority="64" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1504" priority="65" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1497" priority="65" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1503" priority="66" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1496" priority="66" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1502" priority="67" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1495" priority="67" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z59:Z62">
-    <cfRule type="containsText" dxfId="1501" priority="60" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1494" priority="60" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1500" priority="61" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1493" priority="61" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1499" priority="62" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1492" priority="62" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1498" priority="63" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1491" priority="63" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z30:Z35">
-    <cfRule type="containsText" dxfId="1497" priority="56" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1490" priority="56" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1496" priority="57" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1489" priority="57" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1495" priority="58" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1488" priority="58" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1494" priority="59" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1487" priority="59" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:Z21">
-    <cfRule type="containsText" dxfId="1493" priority="52" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1486" priority="52" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1492" priority="53" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1485" priority="53" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1491" priority="54" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1484" priority="54" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1490" priority="55" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1483" priority="55" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6">
-    <cfRule type="containsText" dxfId="1489" priority="48" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1482" priority="48" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1488" priority="49" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1481" priority="49" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1487" priority="50" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1480" priority="50" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1486" priority="51" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1479" priority="51" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL63:AL70">
-    <cfRule type="containsText" dxfId="1485" priority="44" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1478" priority="44" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AL63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1484" priority="45" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1477" priority="45" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AL63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1483" priority="46" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1476" priority="46" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AL63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1482" priority="47" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1475" priority="47" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AL63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL37:AL58">
-    <cfRule type="containsText" dxfId="1481" priority="40" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1474" priority="40" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AL37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1480" priority="41" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1473" priority="41" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AL37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1479" priority="42" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1472" priority="42" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AL37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1478" priority="43" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1471" priority="43" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AL37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL36">
-    <cfRule type="containsText" dxfId="1477" priority="36" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1470" priority="36" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AL36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1476" priority="37" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1469" priority="37" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AL36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1475" priority="38" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1468" priority="38" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AL36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1474" priority="39" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1467" priority="39" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AL36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL22:AL28">
-    <cfRule type="containsText" dxfId="1473" priority="32" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1466" priority="32" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AL22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1472" priority="33" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1465" priority="33" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AL22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1471" priority="34" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1464" priority="34" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AL22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1470" priority="35" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1463" priority="35" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AL22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI17">
-    <cfRule type="containsText" dxfId="1469" priority="28" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1462" priority="28" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1468" priority="29" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1461" priority="29" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1467" priority="30" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1460" priority="30" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1466" priority="31" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1459" priority="31" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI5">
-    <cfRule type="containsText" dxfId="1465" priority="24" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1458" priority="24" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1464" priority="25" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1457" priority="25" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1463" priority="26" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1456" priority="26" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1462" priority="27" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1455" priority="27" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO36">
-    <cfRule type="containsText" dxfId="1461" priority="20" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1454" priority="20" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1460" priority="21" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1453" priority="21" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1459" priority="22" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1452" priority="22" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1458" priority="23" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1451" priority="23" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR63:AR70">
-    <cfRule type="containsText" dxfId="1457" priority="16" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1450" priority="16" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AR63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1456" priority="17" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1449" priority="17" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AR63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1455" priority="18" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1448" priority="18" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AR63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1454" priority="19" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1447" priority="19" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AR63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR37:AR58">
-    <cfRule type="containsText" dxfId="1453" priority="12" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1446" priority="12" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AR37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1452" priority="13" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1445" priority="13" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AR37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1451" priority="14" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1444" priority="14" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AR37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1450" priority="15" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1443" priority="15" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AR37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR22:AR28">
-    <cfRule type="containsText" dxfId="1449" priority="8" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1442" priority="8" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AR22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1448" priority="9" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1441" priority="9" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AR22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1447" priority="10" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1440" priority="10" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AR22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1446" priority="11" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1439" priority="11" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AR22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD12 A16:XFD60 A13:L15 N13:AA15 AC13:XFD15 A62:XFD1048576 A61:I61 K61:AM61 AO61:XFD61">
-    <cfRule type="beginsWith" dxfId="1445" priority="1" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1438" priority="1" operator="beginsWith" text="TargetType">
       <formula>LEFT(A1,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1444" priority="2" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1437" priority="2" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A1,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1443" priority="3" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1436" priority="3" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A1,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1442" priority="4" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1435" priority="4" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1441" priority="5" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1434" priority="5" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1440" priority="6" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1433" priority="6" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1439" priority="7" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1432" priority="7" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35105,515 +35035,515 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AG1:XFD2 AG7:XFD11 A100:XFD103 A106:XFD1048576 AG104:XFD105 C104:AC105 AG44:XFD51 A55:XFD58 C59:T64 X63:XFD64 AG59:XFD62 U59:AC62 A65:XFD80 AG81:XFD99 C81:AC99 C1:G52 U1:V52 X1:AC2 X3:XFD6 X7:AC11 X12:XFD43 X44:AC51 X52:XFD52 I1:M52 O1:S52 O54:R54 I54:M54 X54:XFD54 U54:V54 C54:G54">
-    <cfRule type="containsText" dxfId="1438" priority="150" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1431" priority="150" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1437" priority="151" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1430" priority="151" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1436" priority="152" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1429" priority="152" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1435" priority="153" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1428" priority="153" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U63:W64">
-    <cfRule type="containsText" dxfId="1434" priority="146" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1427" priority="146" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1433" priority="147" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1426" priority="147" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1432" priority="148" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1425" priority="148" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1431" priority="149" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1424" priority="149" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H52 H54">
-    <cfRule type="containsText" dxfId="1430" priority="142" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1423" priority="142" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1429" priority="143" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1422" priority="143" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1428" priority="144" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1421" priority="144" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1427" priority="145" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1420" priority="145" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N52 N54">
-    <cfRule type="containsText" dxfId="1426" priority="138" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1419" priority="138" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1425" priority="139" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1418" priority="139" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1424" priority="140" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1417" priority="140" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1423" priority="141" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1416" priority="141" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T52 T54">
-    <cfRule type="containsText" dxfId="1422" priority="134" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1415" priority="134" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1421" priority="135" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1414" priority="135" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1420" priority="136" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1413" priority="136" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1419" priority="137" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1412" priority="137" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W52 W54">
-    <cfRule type="containsText" dxfId="1418" priority="130" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1411" priority="130" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1417" priority="131" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1410" priority="131" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1416" priority="132" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1409" priority="132" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1415" priority="133" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1408" priority="133" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53:S53 I53:M53 X53:XFD53 U53:V53 C53:G53">
-    <cfRule type="containsText" dxfId="1414" priority="126" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1407" priority="126" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1413" priority="127" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1406" priority="127" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1412" priority="128" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1405" priority="128" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1411" priority="129" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1404" priority="129" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="containsText" dxfId="1410" priority="122" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1403" priority="122" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",H53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1409" priority="123" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1402" priority="123" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",H53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1408" priority="124" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1401" priority="124" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",H53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1407" priority="125" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1400" priority="125" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",H53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="containsText" dxfId="1406" priority="118" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1399" priority="118" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1405" priority="119" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1398" priority="119" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1404" priority="120" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1397" priority="120" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1403" priority="121" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1396" priority="121" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53">
-    <cfRule type="containsText" dxfId="1402" priority="114" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1395" priority="114" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1401" priority="115" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1394" priority="115" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1400" priority="116" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1393" priority="116" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1399" priority="117" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1392" priority="117" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W53">
-    <cfRule type="containsText" dxfId="1398" priority="110" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1391" priority="110" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",W53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1397" priority="111" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1390" priority="111" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",W53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1396" priority="112" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1389" priority="112" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",W53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1395" priority="113" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1388" priority="113" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",W53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54">
-    <cfRule type="containsText" dxfId="1394" priority="106" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1387" priority="106" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1393" priority="107" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1386" priority="107" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1392" priority="108" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1385" priority="108" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1391" priority="109" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1384" priority="109" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="beginsWith" dxfId="1390" priority="99" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1383" priority="99" operator="beginsWith" text="TargetType">
       <formula>LEFT(A44,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1389" priority="100" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1382" priority="100" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A44,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1388" priority="101" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1381" priority="101" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A44,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1387" priority="102" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1380" priority="102" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1386" priority="103" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1379" priority="103" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1385" priority="104" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1378" priority="104" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1384" priority="105" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1377" priority="105" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="beginsWith" dxfId="1383" priority="92" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1376" priority="92" operator="beginsWith" text="TargetType">
       <formula>LEFT(A53,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1382" priority="93" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1375" priority="93" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A53,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1381" priority="94" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1374" priority="94" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A53,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1380" priority="95" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1373" priority="95" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1379" priority="96" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1372" priority="96" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1378" priority="97" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1371" priority="97" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1377" priority="98" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1370" priority="98" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="beginsWith" dxfId="1376" priority="85" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1369" priority="85" operator="beginsWith" text="TargetType">
       <formula>LEFT(A54,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1375" priority="86" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1368" priority="86" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A54,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1374" priority="87" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1367" priority="87" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A54,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1373" priority="88" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1366" priority="88" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1372" priority="89" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1365" priority="89" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1371" priority="90" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1364" priority="90" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1370" priority="91" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1363" priority="91" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="beginsWith" dxfId="1369" priority="78" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1362" priority="78" operator="beginsWith" text="TargetType">
       <formula>LEFT(A42,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1368" priority="79" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1361" priority="79" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A42,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1367" priority="80" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1360" priority="80" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A42,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1366" priority="81" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1359" priority="81" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1365" priority="82" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1358" priority="82" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1364" priority="83" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1357" priority="83" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1363" priority="84" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1356" priority="84" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="beginsWith" dxfId="1362" priority="71" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1355" priority="71" operator="beginsWith" text="TargetType">
       <formula>LEFT(A45,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1361" priority="72" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1354" priority="72" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A45,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1360" priority="73" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1353" priority="73" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A45,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1359" priority="74" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1352" priority="74" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1358" priority="75" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1351" priority="75" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1357" priority="76" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1350" priority="76" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1356" priority="77" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1349" priority="77" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="beginsWith" dxfId="1355" priority="64" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1348" priority="64" operator="beginsWith" text="TargetType">
       <formula>LEFT(A43,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1354" priority="65" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1347" priority="65" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A43,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1353" priority="66" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1346" priority="66" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A43,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1352" priority="67" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1345" priority="67" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1351" priority="68" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1344" priority="68" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1350" priority="69" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1343" priority="69" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1349" priority="70" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1342" priority="70" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="beginsWith" dxfId="1348" priority="57" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1341" priority="57" operator="beginsWith" text="TargetType">
       <formula>LEFT(A22,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1347" priority="58" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1340" priority="58" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A22,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1346" priority="59" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1339" priority="59" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A22,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1345" priority="60" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1338" priority="60" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1344" priority="61" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1337" priority="61" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1343" priority="62" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1336" priority="62" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1342" priority="63" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1335" priority="63" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="beginsWith" dxfId="1341" priority="50" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1334" priority="50" operator="beginsWith" text="TargetType">
       <formula>LEFT(A20,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1340" priority="51" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1333" priority="51" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A20,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1339" priority="52" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1332" priority="52" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A20,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1338" priority="53" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1331" priority="53" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1337" priority="54" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1330" priority="54" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1336" priority="55" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1329" priority="55" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1335" priority="56" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1328" priority="56" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="beginsWith" dxfId="1334" priority="43" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1327" priority="43" operator="beginsWith" text="TargetType">
       <formula>LEFT(A18,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1333" priority="44" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1326" priority="44" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A18,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1332" priority="45" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1325" priority="45" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A18,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1331" priority="46" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1324" priority="46" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1330" priority="47" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1323" priority="47" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1329" priority="48" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1322" priority="48" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1328" priority="49" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1321" priority="49" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="beginsWith" dxfId="1327" priority="36" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1320" priority="36" operator="beginsWith" text="TargetType">
       <formula>LEFT(A16,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1326" priority="37" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1319" priority="37" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A16,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1325" priority="38" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1318" priority="38" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A16,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1324" priority="39" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1317" priority="39" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1323" priority="40" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1316" priority="40" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1322" priority="41" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1315" priority="41" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1321" priority="42" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1314" priority="42" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="beginsWith" dxfId="1320" priority="29" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1313" priority="29" operator="beginsWith" text="TargetType">
       <formula>LEFT(A15,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1319" priority="30" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1312" priority="30" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A15,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1318" priority="31" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1311" priority="31" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A15,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1317" priority="32" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1310" priority="32" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1316" priority="33" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1309" priority="33" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1315" priority="34" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1308" priority="34" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1314" priority="35" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1307" priority="35" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="beginsWith" dxfId="1313" priority="22" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1306" priority="22" operator="beginsWith" text="TargetType">
       <formula>LEFT(A17,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1312" priority="23" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1305" priority="23" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A17,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1311" priority="24" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1304" priority="24" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A17,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1310" priority="25" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1303" priority="25" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1309" priority="26" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1302" priority="26" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1308" priority="27" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1301" priority="27" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1307" priority="28" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1300" priority="28" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="beginsWith" dxfId="1306" priority="15" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1299" priority="15" operator="beginsWith" text="TargetType">
       <formula>LEFT(A19,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1305" priority="16" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1298" priority="16" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A19,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1304" priority="17" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1297" priority="17" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A19,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1303" priority="18" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1296" priority="18" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1302" priority="19" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1295" priority="19" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1301" priority="20" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1294" priority="20" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1300" priority="21" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1293" priority="21" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="beginsWith" dxfId="1299" priority="8" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1292" priority="8" operator="beginsWith" text="TargetType">
       <formula>LEFT(A21,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1298" priority="9" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1291" priority="9" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A21,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1297" priority="10" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1290" priority="10" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A21,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1296" priority="11" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1289" priority="11" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1295" priority="12" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1288" priority="12" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1294" priority="13" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1287" priority="13" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1293" priority="14" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1286" priority="14" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="beginsWith" dxfId="1292" priority="1" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1285" priority="1" operator="beginsWith" text="TargetType">
       <formula>LEFT(A13,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1291" priority="2" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1284" priority="2" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A13,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1290" priority="3" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1283" priority="3" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A13,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1289" priority="4" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1282" priority="4" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1288" priority="5" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1281" priority="5" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1287" priority="6" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1280" priority="6" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1286" priority="7" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1279" priority="7" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45072,303 +45002,303 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD20 B21:XFD23 A24:XFD40 A42:XFD42 B41:XFD41 B43:XFD44 A45:XFD47 A49:XFD51 B48:XFD48 B52:XFD52 A53:XFD59 B60:XFD61 B63:XFD63 A62:XFD62 A64:XFD1048576">
-    <cfRule type="containsText" dxfId="1285" priority="88" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1278" priority="88" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1284" priority="89" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1277" priority="89" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1283" priority="90" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1276" priority="90" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1282" priority="91" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1275" priority="91" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="beginsWith" dxfId="1281" priority="81" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1274" priority="81" operator="beginsWith" text="TargetType">
       <formula>LEFT(A21,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1280" priority="82" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1273" priority="82" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A21,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1279" priority="83" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1272" priority="83" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A21,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1278" priority="84" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1271" priority="84" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1277" priority="85" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1270" priority="85" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1276" priority="86" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1269" priority="86" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1275" priority="87" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1268" priority="87" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="beginsWith" dxfId="1274" priority="74" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1267" priority="74" operator="beginsWith" text="TargetType">
       <formula>LEFT(A22,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1273" priority="75" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1266" priority="75" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A22,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1272" priority="76" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1265" priority="76" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A22,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1271" priority="77" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1264" priority="77" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1270" priority="78" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1263" priority="78" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1269" priority="79" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1262" priority="79" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1268" priority="80" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1261" priority="80" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="beginsWith" dxfId="1267" priority="67" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1260" priority="67" operator="beginsWith" text="TargetType">
       <formula>LEFT(A23,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1266" priority="68" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1259" priority="68" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A23,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1265" priority="69" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1258" priority="69" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A23,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1264" priority="70" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1257" priority="70" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1263" priority="71" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1256" priority="71" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1262" priority="72" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1255" priority="72" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1261" priority="73" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1254" priority="73" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="beginsWith" dxfId="1260" priority="60" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1253" priority="60" operator="beginsWith" text="TargetType">
       <formula>LEFT(A41,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1259" priority="61" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1252" priority="61" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A41,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1258" priority="62" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1251" priority="62" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A41,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1257" priority="63" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1250" priority="63" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1256" priority="64" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1249" priority="64" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1255" priority="65" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1248" priority="65" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1254" priority="66" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1247" priority="66" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A44">
-    <cfRule type="beginsWith" dxfId="1253" priority="53" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1246" priority="53" operator="beginsWith" text="TargetType">
       <formula>LEFT(A43,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1252" priority="54" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1245" priority="54" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A43,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1251" priority="55" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1244" priority="55" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A43,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1250" priority="56" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1243" priority="56" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1249" priority="57" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1242" priority="57" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1248" priority="58" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1241" priority="58" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1247" priority="59" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1240" priority="59" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="beginsWith" dxfId="1246" priority="46" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1239" priority="46" operator="beginsWith" text="TargetType">
       <formula>LEFT(A48,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1245" priority="47" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1238" priority="47" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A48,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1244" priority="48" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1237" priority="48" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A48,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1243" priority="49" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1236" priority="49" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1242" priority="50" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1235" priority="50" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1241" priority="51" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1234" priority="51" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1240" priority="52" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1233" priority="52" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="beginsWith" dxfId="1239" priority="39" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1232" priority="39" operator="beginsWith" text="TargetType">
       <formula>LEFT(A52,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1238" priority="40" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1231" priority="40" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A52,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1237" priority="41" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1230" priority="41" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A52,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1236" priority="42" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1229" priority="42" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1235" priority="43" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1228" priority="43" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1234" priority="44" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1227" priority="44" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1233" priority="45" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1226" priority="45" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A61">
-    <cfRule type="beginsWith" dxfId="1232" priority="32" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1225" priority="32" operator="beginsWith" text="TargetType">
       <formula>LEFT(A60,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1231" priority="33" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1224" priority="33" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A60,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1230" priority="34" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1223" priority="34" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A60,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1229" priority="35" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1222" priority="35" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1228" priority="36" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1221" priority="36" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1227" priority="37" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1220" priority="37" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1226" priority="38" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1219" priority="38" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="beginsWith" dxfId="1225" priority="25" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1218" priority="25" operator="beginsWith" text="TargetType">
       <formula>LEFT(A63,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1224" priority="26" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1217" priority="26" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A63,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1223" priority="27" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1216" priority="27" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A63,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1222" priority="28" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1215" priority="28" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1221" priority="29" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1214" priority="29" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1220" priority="30" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1213" priority="30" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1219" priority="31" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1212" priority="31" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="beginsWith" dxfId="1218" priority="22" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1211" priority="22" operator="beginsWith" text="TargetName">
       <formula>LEFT(A1,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1217" priority="23" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1210" priority="23" operator="beginsWith" text="Name">
       <formula>LEFT(A1,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1216" priority="24" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1209" priority="24" operator="beginsWith" text="TargetType">
       <formula>LEFT(A1,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="beginsWith" dxfId="1215" priority="15" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1208" priority="15" operator="beginsWith" text="TargetType">
       <formula>LEFT(A77,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1214" priority="16" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1207" priority="16" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A77,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1213" priority="17" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1206" priority="17" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A77,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1212" priority="18" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1205" priority="18" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1211" priority="19" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1204" priority="19" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1210" priority="20" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1203" priority="20" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1209" priority="21" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1202" priority="21" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="beginsWith" dxfId="1208" priority="8" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1201" priority="8" operator="beginsWith" text="TargetType">
       <formula>LEFT(A78,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1207" priority="9" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1200" priority="9" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A78,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1206" priority="10" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1199" priority="10" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A78,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1205" priority="11" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1198" priority="11" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1204" priority="12" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1197" priority="12" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1203" priority="13" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1196" priority="13" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1202" priority="14" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1195" priority="14" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="beginsWith" dxfId="6" priority="1" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1194" priority="1" operator="beginsWith" text="TargetType">
       <formula>LEFT(A78,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="2" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1193" priority="2" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A78,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="3" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1192" priority="3" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A78,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1191" priority="4" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1190" priority="5" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1189" priority="6" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1188" priority="7" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A78)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45381,9 +45311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776BD39D-F07F-4F4C-971E-2BFA4701B466}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19:A20"/>
+      <selection pane="topRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48540,9 +48470,6 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="B48" s="1" t="s">
         <v>1069</v>
       </c>
@@ -48603,75 +48530,75 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1 AA13:XFD18 C13:W18 A19:A24 C19:XFD24 A2:A12 C2:XFD12 A25:XFD36 A39:XFD1048576 B37:XFD38">
-    <cfRule type="containsText" dxfId="1201" priority="19" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1187" priority="19" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1200" priority="20" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1186" priority="20" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1199" priority="21" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1185" priority="21" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="1198" priority="18" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1184" priority="18" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="containsText" dxfId="1197" priority="15" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1183" priority="15" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1196" priority="16" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1182" priority="16" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1195" priority="17" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1181" priority="17" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="beginsWith" dxfId="1194" priority="8" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1180" priority="8" operator="beginsWith" text="TargetType">
       <formula>LEFT(A37,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1193" priority="9" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1179" priority="9" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A37,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1192" priority="10" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1178" priority="10" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A37,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1191" priority="11" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1177" priority="11" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1190" priority="12" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1176" priority="12" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1189" priority="13" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1175" priority="13" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1188" priority="14" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1174" priority="14" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="beginsWith" dxfId="1187" priority="1" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="1173" priority="1" operator="beginsWith" text="TargetType">
       <formula>LEFT(A38,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1186" priority="2" stopIfTrue="1" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="1172" priority="2" stopIfTrue="1" operator="beginsWith" text="Name">
       <formula>LEFT(A38,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1185" priority="3" stopIfTrue="1" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="1171" priority="3" stopIfTrue="1" operator="beginsWith" text="TargetName">
       <formula>LEFT(A38,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1184" priority="4" stopIfTrue="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1170" priority="4" stopIfTrue="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1183" priority="5" stopIfTrue="1" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1169" priority="5" stopIfTrue="1" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1182" priority="6" stopIfTrue="1" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1168" priority="6" stopIfTrue="1" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1181" priority="7" stopIfTrue="1" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1167" priority="7" stopIfTrue="1" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53364,1679 +53291,1679 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BI1:XFD2 BI7:XFD11 A99:XFD102 A105:XFD1048576 BI103:XFD104 C103:BD104 AV62:AV63 A65:XFD79 BI80:XFD98 C80:BD98 C13:E64 G43:I64 L54:N64 Y53:Z53 Y54:AA64 AH53:AJ56 AQ64:AS64 AQ1:AT6 AV6:XFD6 AX12:XFD12 AX7:BD11 AV1:AV5 BA1:BB5 BD44:BD51 BD58:BD61 BD62:BE64 AV7:AV17 AD53:AF56 AH36 AD57:AJ64 AQ29:AT36 AU54:AV61 AU64:AV64 AV36:AV53 AX53:BB56 AV29:XFD35 AV22:AV28 AX22:AY28 BD1:BD2 BD3:BE5 AV18:BE21 BG18:XFD21 BD52:BE57 BG53:XFD56 BJ57:XFD64 BJ36:XFD52 BJ22:XFD28 BJ13:XFD17 U53:W64 P43:R64 AM54:AO64 AM53 AM30:AM35 AM18:AM21 AM6 AX57:AY64 BA57:BB64 AX36:AY52 BA36:BB52 BA22:BE28 AX13:BH17 AX1:AY5 BD36:BH36 BG57:BH57 BG62:BH64 BD37:BE43 BG37:BH43 BG52:BH52 BG22:BH28 BG3:XFD5 E1:E42 G13:G42 I32:I42 R1:R5 P1:P6 R6:S6 R13:R17 R18:S21 R22:R28 R29:S36 R37:R42 P12:P42 R12:S12 X1:Y6 AG37:AH39 AJ6 AJ1:AM5 AG16:AH24 AJ22:AM24 AJ18:AJ21 AJ16:AM17 AJ30:AJ35 AG27:AH35 AJ27:AM29 AJ36:AM39 C12:G12 AD1:AE39 C1:L11 I27:J31 L27:L53 U1:V6 U12:V15 P7:Y11 AG1:AH6 AD40:AM52 AG25:AM26 AQ7:AS28 AQ37:AS61 I12:L26 U16:Z52 X12:Z15 AG7:AM15">
-    <cfRule type="containsText" dxfId="1180" priority="476" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1166" priority="476" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1179" priority="477" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1165" priority="477" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1178" priority="478" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1164" priority="478" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1177" priority="479" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1163" priority="479" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ62:AS63 AU62:AU63">
-    <cfRule type="containsText" dxfId="1176" priority="472" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1162" priority="472" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AQ62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1175" priority="473" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1161" priority="473" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AQ62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1174" priority="474" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1160" priority="474" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AQ62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1173" priority="475" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1159" priority="475" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AQ62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:N53 M1:M42 O36 O18:O21">
-    <cfRule type="containsText" dxfId="1172" priority="468" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1158" priority="468" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",M1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1171" priority="469" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1157" priority="469" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",M1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1170" priority="470" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1156" priority="470" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",M1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1169" priority="471" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1155" priority="471" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA53">
-    <cfRule type="containsText" dxfId="1168" priority="464" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1154" priority="464" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AA1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1167" priority="465" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1153" priority="465" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AA1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1166" priority="466" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1152" priority="466" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AA1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1165" priority="467" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1151" priority="467" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AO6 AN16:AO24 AN43:AO53 AN40:AN42 AN7:AN15 AN27:AO39 AN25:AN26">
-    <cfRule type="containsText" dxfId="1164" priority="460" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1150" priority="460" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1163" priority="461" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1149" priority="461" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1162" priority="462" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1148" priority="462" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1161" priority="463" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1147" priority="463" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU6 AU12:AU24 AU27:AU53">
-    <cfRule type="containsText" dxfId="1160" priority="456" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1146" priority="456" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1159" priority="457" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1145" priority="457" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1158" priority="458" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1144" priority="458" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1157" priority="459" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1143" priority="459" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F64">
-    <cfRule type="containsText" dxfId="1156" priority="452" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1142" priority="452" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1155" priority="453" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1141" priority="453" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1154" priority="454" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1140" priority="454" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1153" priority="455" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1139" priority="455" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:K64 J32:J42">
-    <cfRule type="containsText" dxfId="1152" priority="448" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1138" priority="448" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1151" priority="449" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1137" priority="449" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1150" priority="450" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1136" priority="450" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1149" priority="451" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1135" priority="451" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O5">
-    <cfRule type="containsText" dxfId="1148" priority="444" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1134" priority="444" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1147" priority="445" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1133" priority="445" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1146" priority="446" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1132" priority="446" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1145" priority="447" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1131" priority="447" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:O28">
-    <cfRule type="containsText" dxfId="1144" priority="440" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1130" priority="440" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1143" priority="441" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1129" priority="441" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1142" priority="442" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1128" priority="442" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1141" priority="443" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1127" priority="443" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37:O52">
-    <cfRule type="containsText" dxfId="1140" priority="436" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1126" priority="436" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1139" priority="437" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1125" priority="437" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1138" priority="438" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1124" priority="438" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1137" priority="439" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1123" priority="439" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:O64">
-    <cfRule type="containsText" dxfId="1136" priority="432" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1122" priority="432" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1135" priority="433" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1121" priority="433" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1134" priority="434" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1120" priority="434" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1133" priority="435" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1119" priority="435" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:T56">
-    <cfRule type="containsText" dxfId="1132" priority="428" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1118" priority="428" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1131" priority="429" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1117" priority="429" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1130" priority="430" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1116" priority="430" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1129" priority="431" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1115" priority="431" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X53:X64">
-    <cfRule type="containsText" dxfId="1128" priority="424" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1114" priority="424" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",X53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1127" priority="425" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1113" priority="425" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",X53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1126" priority="426" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1112" priority="426" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",X53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1125" priority="427" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1111" priority="427" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",X53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AB6">
-    <cfRule type="containsText" dxfId="1124" priority="420" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1110" priority="420" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1123" priority="421" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1109" priority="421" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1122" priority="422" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1108" priority="422" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1121" priority="423" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1107" priority="423" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AB17">
-    <cfRule type="containsText" dxfId="1120" priority="416" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1106" priority="416" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1119" priority="417" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1105" priority="417" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1118" priority="418" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1104" priority="418" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1117" priority="419" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1103" priority="419" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22:AB28">
-    <cfRule type="containsText" dxfId="1116" priority="412" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1102" priority="412" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1115" priority="413" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1101" priority="413" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1114" priority="414" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1100" priority="414" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1113" priority="415" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1099" priority="415" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AB35">
-    <cfRule type="containsText" dxfId="1112" priority="408" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1098" priority="408" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1111" priority="409" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1097" priority="409" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1110" priority="410" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1096" priority="410" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1109" priority="411" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1095" priority="411" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB43:AC52 AB36:AB42">
-    <cfRule type="containsText" dxfId="1108" priority="404" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1094" priority="404" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1107" priority="405" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1093" priority="405" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1106" priority="406" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1092" priority="406" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1105" priority="407" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1091" priority="407" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB57:AC64">
-    <cfRule type="containsText" dxfId="1104" priority="400" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1090" priority="400" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1103" priority="401" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1089" priority="401" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1102" priority="402" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1088" priority="402" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1101" priority="403" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1087" priority="403" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG53:AG56">
-    <cfRule type="containsText" dxfId="1100" priority="396" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1086" priority="396" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AG53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1099" priority="397" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1085" priority="397" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AG53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1098" priority="398" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1084" priority="398" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AG53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1097" priority="399" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1083" priority="399" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AG53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK57:AL64">
-    <cfRule type="containsText" dxfId="1096" priority="392" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1082" priority="392" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AK57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1095" priority="393" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1081" priority="393" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AK57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1094" priority="394" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1080" priority="394" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AK57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1093" priority="395" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1079" priority="395" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AK57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP6">
-    <cfRule type="containsText" dxfId="1092" priority="388" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1078" priority="388" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1091" priority="389" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1077" priority="389" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1090" priority="390" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1076" priority="390" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1089" priority="391" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1075" priority="391" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP13:AP17">
-    <cfRule type="containsText" dxfId="1088" priority="384" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1074" priority="384" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1087" priority="385" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1073" priority="385" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1086" priority="386" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1072" priority="386" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1085" priority="387" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1071" priority="387" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22:AP28">
-    <cfRule type="containsText" dxfId="1084" priority="380" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1070" priority="380" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1083" priority="381" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1069" priority="381" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1082" priority="382" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1068" priority="382" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1081" priority="383" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1067" priority="383" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:AP35">
-    <cfRule type="containsText" dxfId="1080" priority="376" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1066" priority="376" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1079" priority="377" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1065" priority="377" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1078" priority="378" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1064" priority="378" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1077" priority="379" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1063" priority="379" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP37:AP52">
-    <cfRule type="containsText" dxfId="1076" priority="372" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1062" priority="372" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1075" priority="373" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1061" priority="373" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1074" priority="374" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1060" priority="374" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1073" priority="375" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1059" priority="375" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP57:AP64">
-    <cfRule type="containsText" dxfId="1072" priority="368" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1058" priority="368" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1071" priority="369" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1057" priority="369" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1070" priority="370" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1056" priority="370" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1069" priority="371" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1055" priority="371" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7:AW12">
-    <cfRule type="containsText" dxfId="1068" priority="364" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1054" priority="364" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1067" priority="365" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1053" priority="365" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1066" priority="366" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1052" priority="366" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1065" priority="367" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1051" priority="367" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53:AW56">
-    <cfRule type="containsText" dxfId="1064" priority="360" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1050" priority="360" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1063" priority="361" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1049" priority="361" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1062" priority="362" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1048" priority="362" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1061" priority="363" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1047" priority="363" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ1:AZ5">
-    <cfRule type="containsText" dxfId="1060" priority="356" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1046" priority="356" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AZ1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1059" priority="357" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1045" priority="357" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AZ1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1058" priority="358" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1044" priority="358" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AZ1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1057" priority="359" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1043" priority="359" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AZ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC37:BC64">
-    <cfRule type="containsText" dxfId="1056" priority="352" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1042" priority="352" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BC37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1055" priority="353" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1041" priority="353" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BC37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1054" priority="354" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1040" priority="354" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BC37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1053" priority="355" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1039" priority="355" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BC37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O17">
-    <cfRule type="containsText" dxfId="1052" priority="348" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1038" priority="348" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1051" priority="349" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1037" priority="349" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1050" priority="350" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1036" priority="350" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1049" priority="351" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1035" priority="351" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7:AP12">
-    <cfRule type="containsText" dxfId="1048" priority="344" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1034" priority="344" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1047" priority="345" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1033" priority="345" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1046" priority="346" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1032" priority="346" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1045" priority="347" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1031" priority="347" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O12">
-    <cfRule type="containsText" dxfId="1044" priority="340" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1030" priority="340" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1043" priority="341" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1029" priority="341" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1042" priority="342" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1028" priority="342" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1041" priority="343" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1027" priority="343" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O35">
-    <cfRule type="containsText" dxfId="1040" priority="336" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1026" priority="336" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1039" priority="337" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1025" priority="337" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1038" priority="338" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1024" priority="338" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1037" priority="339" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1023" priority="339" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB53:AC56">
-    <cfRule type="containsText" dxfId="1036" priority="332" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1022" priority="332" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1035" priority="333" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1021" priority="333" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1034" priority="334" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1020" priority="334" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1033" priority="335" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1019" priority="335" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29">
-    <cfRule type="containsText" dxfId="1032" priority="328" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1018" priority="328" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1031" priority="329" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1017" priority="329" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1030" priority="330" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1016" priority="330" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1029" priority="331" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1015" priority="331" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB21">
-    <cfRule type="containsText" dxfId="1028" priority="324" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1014" priority="324" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1027" priority="325" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1013" priority="325" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1026" priority="326" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1012" priority="326" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1025" priority="327" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1011" priority="327" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AB12">
-    <cfRule type="containsText" dxfId="1024" priority="320" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1010" priority="320" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1023" priority="321" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1009" priority="321" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1022" priority="322" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1008" priority="322" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1021" priority="323" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1007" priority="323" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG36">
-    <cfRule type="containsText" dxfId="1020" priority="316" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1006" priority="316" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AG36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1019" priority="317" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1005" priority="317" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AG36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1018" priority="318" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1004" priority="318" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AG36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1017" priority="319" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="1003" priority="319" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AG36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP1:AP5">
-    <cfRule type="containsText" dxfId="1016" priority="312" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="1002" priority="312" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1015" priority="313" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="1001" priority="313" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1014" priority="314" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1000" priority="314" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1013" priority="315" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="999" priority="315" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AP21">
-    <cfRule type="containsText" dxfId="1012" priority="308" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="998" priority="308" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1011" priority="309" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="997" priority="309" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1010" priority="310" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="996" priority="310" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1009" priority="311" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="995" priority="311" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP36">
-    <cfRule type="containsText" dxfId="1008" priority="304" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="994" priority="304" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1007" priority="305" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="993" priority="305" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1006" priority="306" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="992" priority="306" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1005" priority="307" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="991" priority="307" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP53:AP56">
-    <cfRule type="containsText" dxfId="1004" priority="300" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="990" priority="300" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1003" priority="301" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="989" priority="301" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1002" priority="302" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="988" priority="302" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1001" priority="303" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="987" priority="303" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT7:AT12">
-    <cfRule type="containsText" dxfId="1000" priority="296" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="986" priority="296" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AT7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="999" priority="297" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="985" priority="297" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AT7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="998" priority="298" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="984" priority="298" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AT7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="997" priority="299" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="983" priority="299" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AT7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT13:AT17">
-    <cfRule type="containsText" dxfId="996" priority="292" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="982" priority="292" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AT13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="995" priority="293" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="981" priority="293" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AT13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="994" priority="294" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="980" priority="294" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AT13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="993" priority="295" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="979" priority="295" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AT13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT18:AT21">
-    <cfRule type="containsText" dxfId="992" priority="288" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="978" priority="288" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AT18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="991" priority="289" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="977" priority="289" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AT18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="990" priority="290" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="976" priority="290" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AT18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="989" priority="291" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="975" priority="291" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AT18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT22:AT28">
-    <cfRule type="containsText" dxfId="988" priority="284" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="974" priority="284" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AT22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="987" priority="285" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="973" priority="285" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AT22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="986" priority="286" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="972" priority="286" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AT22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="985" priority="287" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="971" priority="287" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AT22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT37:AT64">
-    <cfRule type="containsText" dxfId="984" priority="280" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="970" priority="280" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AT37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="983" priority="281" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="969" priority="281" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AT37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="982" priority="282" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="968" priority="282" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AT37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="981" priority="283" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="967" priority="283" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AT37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW57:AW64">
-    <cfRule type="containsText" dxfId="980" priority="276" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="966" priority="276" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="979" priority="277" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="965" priority="277" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="978" priority="278" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="964" priority="278" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="977" priority="279" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="963" priority="279" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW36:AW52">
-    <cfRule type="containsText" dxfId="976" priority="272" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="962" priority="272" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="975" priority="273" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="961" priority="273" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="974" priority="274" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="960" priority="274" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="973" priority="275" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="959" priority="275" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW22:AW28">
-    <cfRule type="containsText" dxfId="972" priority="268" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="958" priority="268" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="971" priority="269" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="957" priority="269" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="970" priority="270" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="956" priority="270" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="969" priority="271" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="955" priority="271" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC5">
-    <cfRule type="containsText" dxfId="968" priority="264" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="954" priority="264" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="967" priority="265" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="953" priority="265" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="966" priority="266" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="952" priority="266" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="965" priority="267" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="951" priority="267" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF18:BF21">
-    <cfRule type="containsText" dxfId="964" priority="260" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="950" priority="260" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BF18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="963" priority="261" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="949" priority="261" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BF18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="962" priority="262" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="948" priority="262" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BF18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="961" priority="263" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="947" priority="263" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BF18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF53:BF56">
-    <cfRule type="containsText" dxfId="960" priority="256" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="946" priority="256" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BF53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="959" priority="257" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="945" priority="257" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BF53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="958" priority="258" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="944" priority="258" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BF53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="957" priority="259" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="943" priority="259" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BF53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI57:BI64">
-    <cfRule type="containsText" dxfId="956" priority="252" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="942" priority="252" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BI57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="955" priority="253" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="941" priority="253" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BI57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="954" priority="254" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="940" priority="254" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BI57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="953" priority="255" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="939" priority="255" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BI57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI36:BI52">
-    <cfRule type="containsText" dxfId="952" priority="248" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="938" priority="248" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BI36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="951" priority="249" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="937" priority="249" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BI36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="950" priority="250" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="936" priority="250" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BI36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="949" priority="251" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="935" priority="251" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BI36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI22:BI28">
-    <cfRule type="containsText" dxfId="948" priority="244" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="934" priority="244" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BI22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="947" priority="245" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="933" priority="245" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BI22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="946" priority="246" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="932" priority="246" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BI22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="945" priority="247" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="931" priority="247" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BI22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI13:BI17">
-    <cfRule type="containsText" dxfId="944" priority="240" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="930" priority="240" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BI13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="943" priority="241" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="929" priority="241" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BI13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="942" priority="242" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="928" priority="242" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BI13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="941" priority="243" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="927" priority="243" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BI13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53:O56">
-    <cfRule type="containsText" dxfId="940" priority="236" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="926" priority="236" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="939" priority="237" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="925" priority="237" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="938" priority="238" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="924" priority="238" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="937" priority="239" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="923" priority="239" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57:T64">
-    <cfRule type="containsText" dxfId="936" priority="232" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="922" priority="232" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="935" priority="233" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="921" priority="233" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="934" priority="234" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="920" priority="234" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="933" priority="235" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="919" priority="235" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:T52 S37:S42">
-    <cfRule type="containsText" dxfId="932" priority="228" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="918" priority="228" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="931" priority="229" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="917" priority="229" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="930" priority="230" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="916" priority="230" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="929" priority="231" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="915" priority="231" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S28">
-    <cfRule type="containsText" dxfId="928" priority="224" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="914" priority="224" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="927" priority="225" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="913" priority="225" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="926" priority="226" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="912" priority="226" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="925" priority="227" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="911" priority="227" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S17">
-    <cfRule type="containsText" dxfId="924" priority="220" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="910" priority="220" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="923" priority="221" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="909" priority="221" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="922" priority="222" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="908" priority="222" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="921" priority="223" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="907" priority="223" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S5">
-    <cfRule type="containsText" dxfId="920" priority="216" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="906" priority="216" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="919" priority="217" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="905" priority="217" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="918" priority="218" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="904" priority="218" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="917" priority="219" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="903" priority="219" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK53:AL56">
-    <cfRule type="containsText" dxfId="916" priority="212" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="902" priority="212" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AK53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="915" priority="213" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="901" priority="213" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AK53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="914" priority="214" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="900" priority="214" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AK53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="913" priority="215" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="899" priority="215" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AK53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK30:AL35">
-    <cfRule type="containsText" dxfId="912" priority="208" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="898" priority="208" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AK30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="911" priority="209" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="897" priority="209" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AK30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="910" priority="210" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="896" priority="210" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AK30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="909" priority="211" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="895" priority="211" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AK30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AL21">
-    <cfRule type="containsText" dxfId="908" priority="204" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="894" priority="204" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AK18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="907" priority="205" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="893" priority="205" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AK18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="906" priority="206" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="892" priority="206" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AK18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="905" priority="207" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="891" priority="207" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AK18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK6:AL6">
-    <cfRule type="containsText" dxfId="904" priority="200" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="890" priority="200" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AK6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="903" priority="201" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="889" priority="201" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AK6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="902" priority="202" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="888" priority="202" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AK6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="901" priority="203" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="887" priority="203" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AK6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ57:AZ64">
-    <cfRule type="containsText" dxfId="900" priority="196" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="886" priority="196" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AZ57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="899" priority="197" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="885" priority="197" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AZ57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="898" priority="198" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="884" priority="198" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AZ57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="897" priority="199" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="883" priority="199" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AZ57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ37:AZ52">
-    <cfRule type="containsText" dxfId="896" priority="192" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="882" priority="192" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AZ37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="895" priority="193" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="881" priority="193" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AZ37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="894" priority="194" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="880" priority="194" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AZ37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="893" priority="195" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="879" priority="195" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AZ37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ36">
-    <cfRule type="containsText" dxfId="892" priority="188" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="878" priority="188" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AZ36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="891" priority="189" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="877" priority="189" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AZ36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="890" priority="190" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="876" priority="190" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AZ36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="889" priority="191" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="875" priority="191" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AZ36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22:AZ28">
-    <cfRule type="containsText" dxfId="888" priority="184" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="874" priority="184" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AZ22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="887" priority="185" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="873" priority="185" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AZ22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="886" priority="186" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="872" priority="186" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AZ22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="885" priority="187" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="871" priority="187" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AZ22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW13:AW17">
-    <cfRule type="containsText" dxfId="884" priority="180" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="870" priority="180" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="883" priority="181" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="869" priority="181" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="882" priority="182" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="868" priority="182" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="881" priority="183" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="867" priority="183" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1:AW5">
-    <cfRule type="containsText" dxfId="880" priority="176" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="866" priority="176" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="879" priority="177" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="865" priority="177" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="878" priority="178" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="864" priority="178" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="877" priority="179" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="863" priority="179" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC36">
-    <cfRule type="containsText" dxfId="876" priority="172" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="862" priority="172" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BC36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="875" priority="173" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="861" priority="173" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BC36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="874" priority="174" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="860" priority="174" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BC36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="873" priority="175" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="859" priority="175" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BC36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF57:BF64">
-    <cfRule type="containsText" dxfId="872" priority="168" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="858" priority="168" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BF57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="871" priority="169" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="857" priority="169" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BF57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="870" priority="170" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="856" priority="170" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BF57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="869" priority="171" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="855" priority="171" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BF57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF37:BF52">
-    <cfRule type="containsText" dxfId="868" priority="164" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="854" priority="164" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BF37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="867" priority="165" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="853" priority="165" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BF37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="866" priority="166" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="852" priority="166" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BF37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="865" priority="167" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="851" priority="167" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BF37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF22:BF28">
-    <cfRule type="containsText" dxfId="864" priority="160" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="850" priority="160" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BF22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="863" priority="161" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="849" priority="161" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BF22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="862" priority="162" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="848" priority="162" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BF22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="861" priority="163" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="847" priority="163" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BF22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF1:BF5">
-    <cfRule type="containsText" dxfId="860" priority="156" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="846" priority="156" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="859" priority="157" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="845" priority="157" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="858" priority="158" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="844" priority="158" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="857" priority="159" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="843" priority="159" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BF1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H42">
-    <cfRule type="containsText" dxfId="856" priority="152" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="842" priority="152" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="855" priority="153" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="841" priority="153" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="854" priority="154" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="840" priority="154" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="853" priority="155" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="839" priority="155" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N6">
-    <cfRule type="containsText" dxfId="852" priority="148" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="838" priority="148" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="851" priority="149" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="837" priority="149" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="850" priority="150" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="836" priority="150" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="849" priority="151" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="835" priority="151" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N15">
-    <cfRule type="containsText" dxfId="848" priority="144" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="834" priority="144" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="145" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="833" priority="145" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="846" priority="146" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="832" priority="146" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="845" priority="147" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="831" priority="147" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26">
-    <cfRule type="containsText" dxfId="844" priority="140" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="830" priority="140" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="843" priority="141" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="829" priority="141" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="842" priority="142" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="828" priority="142" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="841" priority="143" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="827" priority="143" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:N42">
-    <cfRule type="containsText" dxfId="840" priority="136" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="826" priority="136" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="839" priority="137" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="825" priority="137" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="838" priority="138" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="824" priority="138" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="837" priority="139" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="823" priority="139" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q6">
-    <cfRule type="containsText" dxfId="836" priority="132" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="822" priority="132" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="835" priority="133" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="821" priority="133" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="834" priority="134" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="820" priority="134" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="833" priority="135" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="819" priority="135" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q42">
-    <cfRule type="containsText" dxfId="832" priority="128" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="818" priority="128" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="831" priority="129" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="817" priority="129" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="830" priority="130" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="816" priority="130" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="829" priority="131" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="815" priority="131" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Q12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:T39">
-    <cfRule type="containsText" dxfId="828" priority="124" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="814" priority="124" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="827" priority="125" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="813" priority="125" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="826" priority="126" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="812" priority="126" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="825" priority="127" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="811" priority="127" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W6">
-    <cfRule type="containsText" dxfId="824" priority="120" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="810" priority="120" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="823" priority="121" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="809" priority="121" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="822" priority="122" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="808" priority="122" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="821" priority="123" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="807" priority="123" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W15">
-    <cfRule type="containsText" dxfId="820" priority="116" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="806" priority="116" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="819" priority="117" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="805" priority="117" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="818" priority="118" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="804" priority="118" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="817" priority="119" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="803" priority="119" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",W12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z11">
-    <cfRule type="containsText" dxfId="816" priority="112" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="802" priority="112" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="815" priority="113" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="801" priority="113" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="814" priority="114" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="800" priority="114" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="813" priority="115" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="799" priority="115" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC11">
-    <cfRule type="containsText" dxfId="812" priority="108" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="798" priority="108" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="811" priority="109" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="797" priority="109" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="810" priority="110" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="796" priority="110" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="809" priority="111" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="795" priority="111" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16:AC24">
-    <cfRule type="containsText" dxfId="808" priority="104" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="794" priority="104" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="807" priority="105" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="793" priority="105" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="806" priority="106" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="792" priority="106" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="805" priority="107" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="791" priority="107" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27:AC39">
-    <cfRule type="containsText" dxfId="804" priority="100" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="790" priority="100" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="803" priority="101" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="789" priority="101" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="802" priority="102" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="788" priority="102" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="103" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="787" priority="103" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF16:AF39">
-    <cfRule type="containsText" dxfId="800" priority="96" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="786" priority="96" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AF16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="799" priority="97" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="785" priority="97" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AF16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="798" priority="98" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="784" priority="98" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AF16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="797" priority="99" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="783" priority="99" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AF16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI6">
-    <cfRule type="containsText" dxfId="796" priority="92" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="782" priority="92" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="93" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="781" priority="93" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="794" priority="94" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="780" priority="94" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="95" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="779" priority="95" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI16:AI24">
-    <cfRule type="containsText" dxfId="792" priority="88" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="778" priority="88" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="791" priority="89" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="777" priority="89" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="790" priority="90" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="776" priority="90" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="91" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="775" priority="91" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI27:AI39">
-    <cfRule type="containsText" dxfId="788" priority="84" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="774" priority="84" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="787" priority="85" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="773" priority="85" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="786" priority="86" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="772" priority="86" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="785" priority="87" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="771" priority="87" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO12:AO15">
-    <cfRule type="containsText" dxfId="784" priority="80" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="770" priority="80" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="81" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="769" priority="81" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="782" priority="82" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="768" priority="82" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="83" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="767" priority="83" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO40:AO42">
-    <cfRule type="containsText" dxfId="780" priority="76" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="766" priority="76" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="779" priority="77" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="765" priority="77" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="778" priority="78" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="764" priority="78" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="777" priority="79" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="763" priority="79" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H15">
-    <cfRule type="containsText" dxfId="776" priority="72" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="762" priority="72" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",H12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="73" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="761" priority="73" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",H12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="774" priority="74" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="760" priority="74" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",H12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="75" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="759" priority="75" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",H12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AC6">
-    <cfRule type="containsText" dxfId="772" priority="68" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="758" priority="68" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="69" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="757" priority="69" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="770" priority="70" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="756" priority="70" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="71" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="755" priority="71" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AO11">
-    <cfRule type="containsText" dxfId="768" priority="64" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="754" priority="64" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="65" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="753" priority="65" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="766" priority="66" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="752" priority="66" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="765" priority="67" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="751" priority="67" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K39">
-    <cfRule type="containsText" dxfId="764" priority="60" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="750" priority="60" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="61" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="749" priority="61" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="762" priority="62" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="748" priority="62" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="761" priority="63" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="747" priority="63" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N39">
-    <cfRule type="containsText" dxfId="760" priority="56" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="746" priority="56" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="759" priority="57" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="745" priority="57" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="58" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="744" priority="58" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="757" priority="59" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="743" priority="59" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N24">
-    <cfRule type="containsText" dxfId="756" priority="52" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="742" priority="52" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="755" priority="53" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="741" priority="53" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="54" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="740" priority="54" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="55" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="739" priority="55" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T6">
-    <cfRule type="containsText" dxfId="752" priority="48" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="738" priority="48" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="751" priority="49" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="737" priority="49" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="750" priority="50" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="736" priority="50" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="51" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="735" priority="51" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T15">
-    <cfRule type="containsText" dxfId="748" priority="44" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="734" priority="44" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="45" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="733" priority="45" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="46" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="732" priority="46" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="47" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="731" priority="47" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T40:T42">
-    <cfRule type="containsText" dxfId="744" priority="40" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="730" priority="40" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="41" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="729" priority="41" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="742" priority="42" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="728" priority="42" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="43" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="727" priority="43" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC40:AC42">
-    <cfRule type="containsText" dxfId="740" priority="36" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="726" priority="36" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="37" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="725" priority="37" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="38" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="724" priority="38" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="39" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="723" priority="39" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC25:AC26">
-    <cfRule type="containsText" dxfId="736" priority="32" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="722" priority="32" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="33" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="721" priority="33" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="34" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="720" priority="34" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="35" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="719" priority="35" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC15">
-    <cfRule type="containsText" dxfId="732" priority="28" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="718" priority="28" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="29" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="717" priority="29" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="30" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="716" priority="30" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="729" priority="31" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="715" priority="31" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF15">
-    <cfRule type="containsText" dxfId="728" priority="24" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="714" priority="24" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="727" priority="25" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="713" priority="25" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="26" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="712" priority="26" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="27" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="711" priority="27" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AF1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:AU11">
-    <cfRule type="containsText" dxfId="724" priority="20" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="710" priority="20" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="723" priority="21" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="709" priority="21" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="722" priority="22" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="708" priority="22" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="23" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="707" priority="23" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU25:AU26">
-    <cfRule type="containsText" dxfId="720" priority="16" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="706" priority="16" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="719" priority="17" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="705" priority="17" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="718" priority="18" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="704" priority="18" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="19" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="703" priority="19" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:K42">
-    <cfRule type="containsText" dxfId="716" priority="12" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="702" priority="12" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="13" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="701" priority="13" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="714" priority="14" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="700" priority="14" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="15" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="699" priority="15" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N11">
-    <cfRule type="containsText" dxfId="712" priority="8" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="698" priority="8" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="9" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="697" priority="9" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="710" priority="10" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="696" priority="10" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="11" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="695" priority="11" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AO26">
-    <cfRule type="containsText" dxfId="708" priority="4" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="694" priority="4" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="707" priority="5" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="693" priority="5" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="6" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="692" priority="6" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="705" priority="7" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="691" priority="7" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="beginsWith" dxfId="704" priority="1" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="690" priority="1" operator="beginsWith" text="TargetType">
       <formula>LEFT(A1,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="703" priority="2" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="689" priority="2" operator="beginsWith" text="Name">
       <formula>LEFT(A1,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="702" priority="3" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="688" priority="3" operator="beginsWith" text="TargetName">
       <formula>LEFT(A1,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58065,128 +57992,128 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AM1:XFD2 AM7:XFD11 A99:XFD102 A105:XFD1048576 AM103:XFD104 C103:AI104 AM44:XFD51 A54:XFD57 C58:Z63 AD62:XFD63 AM58:XFD61 AA58:AI61 A64:XFD79 AM80:XFD98 C80:AI98 AA1:AB53 AD1:AI2 AD3:XFD6 AD7:AI11 AD12:XFD43 AD44:AI51 AD52:XFD53 L37:R53 U1:Y53 C1:I53 L1:P36 R1:R36">
-    <cfRule type="containsText" dxfId="701" priority="33" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="687" priority="33" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="34" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="686" priority="34" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="35" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="685" priority="35" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="698" priority="36" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="684" priority="36" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA62:AC63">
-    <cfRule type="containsText" dxfId="697" priority="29" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="683" priority="29" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AA62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="30" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="682" priority="30" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AA62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="695" priority="31" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="681" priority="31" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AA62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="32" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="680" priority="32" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AA62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J36 J37:K53">
-    <cfRule type="containsText" dxfId="693" priority="25" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="679" priority="25" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="26" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="678" priority="26" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="27" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="677" priority="27" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="690" priority="28" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="676" priority="28" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S37:T53 S1:S36">
-    <cfRule type="containsText" dxfId="689" priority="21" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="675" priority="21" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="22" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="674" priority="22" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="687" priority="23" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="673" priority="23" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="24" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="672" priority="24" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z53">
-    <cfRule type="containsText" dxfId="685" priority="17" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="671" priority="17" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="18" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="670" priority="18" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="683" priority="19" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="669" priority="19" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="20" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="668" priority="20" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AC53">
-    <cfRule type="containsText" dxfId="681" priority="13" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="667" priority="13" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="14" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="666" priority="14" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="679" priority="15" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="665" priority="15" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="16" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="664" priority="16" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T36">
-    <cfRule type="containsText" dxfId="677" priority="9" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="663" priority="9" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="10" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="662" priority="10" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="11" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="661" priority="11" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="674" priority="12" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="660" priority="12" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K36">
-    <cfRule type="containsText" dxfId="673" priority="5" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="659" priority="5" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="6" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="658" priority="6" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="7" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="657" priority="7" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="670" priority="8" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="656" priority="8" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q36">
-    <cfRule type="containsText" dxfId="669" priority="1" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="655" priority="1" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="2" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="654" priority="2" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="3" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="653" priority="3" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="4" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="652" priority="4" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62878,2160 +62805,2160 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BW1:XFD2 BW7:XFD11 A99:XFD102 A105:XFD1048576 BW103:XFD104 C103:BR104 BJ62:BJ63 A65:XFD79 BW80:XFD98 C80:BR98 I43:L64 P54:T64 AJ53:AL53 AJ54:AM64 AV53:AX56 BE64:BG64 BE1:BH6 BJ6:XFD6 BL12:XFD12 BL7:BR11 BJ1:BJ5 BO1:BP5 BR44:BR51 BR58:BR61 BR62:BS64 BJ7:BJ17 AQ53:AT56 AV36 AQ57:AX64 BE29:BH36 BI54:BJ61 BI64:BJ64 BJ36:BJ53 BL53:BP56 BJ29:XFD35 BJ22:BJ28 BL22:BM28 BR1:BR2 BR3:BS5 BJ18:BS21 BU18:XFD21 BR52:BS57 BU53:XFD56 BX57:XFD64 BX36:XFD52 BX22:XFD28 BX13:XFD17 AD53:AG64 V43:Z64 BA54:BC64 BA53 BA30:BA35 BA18:BA21 BA6 BL57:BM64 BO57:BP64 BL36:BM52 BO36:BP52 BO22:BS28 BL13:BV17 BL1:BM5 BR36:BV36 BU57:BV57 BU62:BV64 BR37:BS43 BU37:BV43 BU52:BV52 BU22:BV28 BU3:XFD5 L32:L42 Y1:Y6 AU37:AV39 AX6 AX1:BA5 AU16:AV24 AX22:BA24 AX18:AX21 AX16:BA17 AX30:AX35 AU27:AV35 AX27:BA29 AX36:BA39 G12 L27:M31 P43:Q53 AD1:AE6 AD12:AE15 AU1:AV6 BE7:BG28 BE37:BG61 C1:F64 P27:P42 V1:W6 AA6 Y25:Z26 AA7:AE11 AH1:AJ6 I12:I42 AH12:AL15 L12:P26 G1:Q6 V7:Y11 V12:W42 AG7:AH11 AD16:AL52 AQ40:BA52 AQ1:AS39 AU7:BA15 AU25:BA26 G7:M11 O7:Q11 AA12 Y12:Y24 AA18:AA21 Y27:Y42 AA29:AA36 AJ7:AJ11">
-    <cfRule type="containsText" dxfId="665" priority="613" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="651" priority="613" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="614" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="650" priority="614" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="615" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="649" priority="615" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="662" priority="616" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="648" priority="616" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE62:BG63 BI62:BI63">
-    <cfRule type="containsText" dxfId="661" priority="609" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="647" priority="609" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BE62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="610" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="646" priority="610" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BE62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="659" priority="611" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="645" priority="611" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BE62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="612" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="644" priority="612" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BE62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43:T53 R1:R42 U36 U18:U21">
-    <cfRule type="containsText" dxfId="657" priority="605" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="643" priority="605" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",R1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="606" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="642" priority="606" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",R1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="607" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="641" priority="607" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",R1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="608" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="640" priority="608" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM53">
-    <cfRule type="containsText" dxfId="653" priority="601" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="639" priority="601" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AM1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="602" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="638" priority="602" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AM1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="603" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="637" priority="603" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AM1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="604" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="636" priority="604" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AM1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BC6 BB16:BC24 BB43:BC53 BB40:BB42 BB7:BB15 BB27:BC39 BB25:BB26">
-    <cfRule type="containsText" dxfId="649" priority="597" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="635" priority="597" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="598" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="634" priority="598" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="599" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="633" priority="599" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="600" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="632" priority="600" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BB1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BI6 BI12:BI24 BI27:BI53">
-    <cfRule type="containsText" dxfId="645" priority="593" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="631" priority="593" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="644" priority="594" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="630" priority="594" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="595" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="629" priority="595" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BI1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="596" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="628" priority="596" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H64 G13:G42">
-    <cfRule type="containsText" dxfId="641" priority="589" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="627" priority="589" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="640" priority="590" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="626" priority="590" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="591" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="625" priority="591" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="638" priority="592" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="624" priority="592" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:O64 M32:M42">
-    <cfRule type="containsText" dxfId="637" priority="585" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="623" priority="585" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",M32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="586" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="622" priority="586" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",M32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="635" priority="587" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="621" priority="587" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",M32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="634" priority="588" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="620" priority="588" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",M32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U5">
-    <cfRule type="containsText" dxfId="633" priority="581" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="619" priority="581" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="582" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="618" priority="582" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="583" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="617" priority="583" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="584" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="616" priority="584" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:U28">
-    <cfRule type="containsText" dxfId="629" priority="577" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="615" priority="577" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="578" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="614" priority="578" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="579" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="613" priority="579" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="580" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="612" priority="580" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37:U52">
-    <cfRule type="containsText" dxfId="625" priority="573" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="611" priority="573" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="574" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="610" priority="574" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="575" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="609" priority="575" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="576" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="608" priority="576" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57:U64">
-    <cfRule type="containsText" dxfId="621" priority="569" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="607" priority="569" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="620" priority="570" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="606" priority="570" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="571" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="605" priority="571" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="572" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="604" priority="572" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA53:AC56">
-    <cfRule type="containsText" dxfId="617" priority="565" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="603" priority="565" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AA53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="616" priority="566" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="602" priority="566" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AA53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="567" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="601" priority="567" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AA53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="568" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="600" priority="568" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AA53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH53:AI64">
-    <cfRule type="containsText" dxfId="613" priority="561" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="599" priority="561" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AH53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="562" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="598" priority="562" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AH53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="611" priority="563" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="597" priority="563" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AH53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="564" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="596" priority="564" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AH53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AO6">
-    <cfRule type="containsText" dxfId="609" priority="557" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="595" priority="557" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="558" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="594" priority="558" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="607" priority="559" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="593" priority="559" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="560" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="592" priority="560" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN16:AO17 AN13:AN15">
-    <cfRule type="containsText" dxfId="605" priority="553" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="591" priority="553" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="554" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="590" priority="554" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="555" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="589" priority="555" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="602" priority="556" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="588" priority="556" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22:AO24 AN27:AO28 AN25:AN26">
-    <cfRule type="containsText" dxfId="601" priority="549" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="587" priority="549" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="550" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="586" priority="550" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="599" priority="551" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="585" priority="551" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="552" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="584" priority="552" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN30:AO35">
-    <cfRule type="containsText" dxfId="597" priority="545" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="583" priority="545" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="546" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="582" priority="546" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="547" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="581" priority="547" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="548" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="580" priority="548" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN43:AP52 AN36:AO39 AN40:AN42">
-    <cfRule type="containsText" dxfId="593" priority="541" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="579" priority="541" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="542" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="578" priority="542" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="543" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="577" priority="543" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="590" priority="544" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="576" priority="544" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN57:AP64">
-    <cfRule type="containsText" dxfId="589" priority="537" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="575" priority="537" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="538" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="574" priority="538" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="587" priority="539" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="573" priority="539" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="540" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="572" priority="540" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU53:AU56">
-    <cfRule type="containsText" dxfId="585" priority="533" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="571" priority="533" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="534" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="570" priority="534" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="535" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="569" priority="535" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="536" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="568" priority="536" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY57:AZ64">
-    <cfRule type="containsText" dxfId="581" priority="529" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="567" priority="529" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AY57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="530" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="566" priority="530" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AY57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="531" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="565" priority="531" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AY57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="532" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="564" priority="532" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AY57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD6">
-    <cfRule type="containsText" dxfId="577" priority="525" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="563" priority="525" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="526" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="562" priority="526" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="527" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="561" priority="527" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="528" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="560" priority="528" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD13:BD17">
-    <cfRule type="containsText" dxfId="573" priority="521" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="559" priority="521" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="522" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="558" priority="522" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="523" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="557" priority="523" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="524" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="556" priority="524" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD22:BD28">
-    <cfRule type="containsText" dxfId="569" priority="517" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="555" priority="517" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="518" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="554" priority="518" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="519" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="553" priority="519" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="520" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="552" priority="520" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD29:BD35">
-    <cfRule type="containsText" dxfId="565" priority="513" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="551" priority="513" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="514" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="550" priority="514" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="515" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="549" priority="515" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="516" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="548" priority="516" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD37:BD52">
-    <cfRule type="containsText" dxfId="561" priority="509" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="547" priority="509" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="510" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="546" priority="510" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="511" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="545" priority="511" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="512" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="544" priority="512" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD57:BD64">
-    <cfRule type="containsText" dxfId="557" priority="505" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="543" priority="505" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="506" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="542" priority="506" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="555" priority="507" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="541" priority="507" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="554" priority="508" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="540" priority="508" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK7:BK12">
-    <cfRule type="containsText" dxfId="553" priority="501" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="539" priority="501" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BK7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="502" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="538" priority="502" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BK7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="551" priority="503" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="537" priority="503" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BK7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="504" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="536" priority="504" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BK7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK53:BK56">
-    <cfRule type="containsText" dxfId="549" priority="497" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="535" priority="497" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BK53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="548" priority="498" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="534" priority="498" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BK53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="499" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="533" priority="499" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BK53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="500" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="532" priority="500" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BK53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN1:BN5">
-    <cfRule type="containsText" dxfId="545" priority="493" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="531" priority="493" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="494" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="530" priority="494" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="495" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="529" priority="495" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BN1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="542" priority="496" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="528" priority="496" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ37:BQ64">
-    <cfRule type="containsText" dxfId="541" priority="489" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="527" priority="489" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BQ37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="490" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="526" priority="490" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BQ37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="491" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="525" priority="491" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BQ37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="492" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="524" priority="492" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BQ37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U17">
-    <cfRule type="containsText" dxfId="537" priority="485" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="523" priority="485" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="486" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="522" priority="486" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="487" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="521" priority="487" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="488" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="520" priority="488" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD7:BD12">
-    <cfRule type="containsText" dxfId="533" priority="481" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="519" priority="481" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="482" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="518" priority="482" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="483" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="517" priority="483" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="484" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="516" priority="484" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U12">
-    <cfRule type="containsText" dxfId="529" priority="477" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="515" priority="477" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="478" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="514" priority="478" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="479" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="513" priority="479" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="480" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="512" priority="480" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29:U35">
-    <cfRule type="containsText" dxfId="525" priority="473" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="511" priority="473" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="524" priority="474" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="510" priority="474" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="475" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="509" priority="475" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="476" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="508" priority="476" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN53:AP56">
-    <cfRule type="containsText" dxfId="521" priority="469" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="507" priority="469" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="470" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="506" priority="470" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="519" priority="471" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="505" priority="471" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="472" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="504" priority="472" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN29:AO29">
-    <cfRule type="containsText" dxfId="517" priority="465" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="503" priority="465" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="466" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="502" priority="466" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="515" priority="467" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="501" priority="467" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="468" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="500" priority="468" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN18:AO21">
-    <cfRule type="containsText" dxfId="513" priority="461" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="499" priority="461" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="512" priority="462" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="498" priority="462" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="463" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="497" priority="463" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="464" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="496" priority="464" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AN12">
-    <cfRule type="containsText" dxfId="509" priority="457" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="495" priority="457" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AN7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="508" priority="458" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="494" priority="458" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AN7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="507" priority="459" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="493" priority="459" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AN7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="460" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="492" priority="460" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AN7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36">
-    <cfRule type="containsText" dxfId="505" priority="453" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="491" priority="453" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AU36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="454" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="490" priority="454" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AU36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="503" priority="455" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="489" priority="455" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AU36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="456" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="488" priority="456" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AU36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD5">
-    <cfRule type="containsText" dxfId="501" priority="449" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="487" priority="449" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="500" priority="450" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="486" priority="450" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="499" priority="451" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="485" priority="451" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="452" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="484" priority="452" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD18:BD21">
-    <cfRule type="containsText" dxfId="497" priority="445" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="483" priority="445" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="496" priority="446" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="482" priority="446" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="495" priority="447" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="481" priority="447" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="448" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="480" priority="448" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD36">
-    <cfRule type="containsText" dxfId="493" priority="441" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="479" priority="441" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="492" priority="442" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="478" priority="442" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="491" priority="443" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="477" priority="443" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="444" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="476" priority="444" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD53:BD56">
-    <cfRule type="containsText" dxfId="489" priority="437" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="475" priority="437" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BD53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="488" priority="438" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="474" priority="438" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BD53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="439" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="473" priority="439" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BD53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="440" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="472" priority="440" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BD53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH7:BH12">
-    <cfRule type="containsText" dxfId="485" priority="433" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="471" priority="433" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BH7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="434" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="470" priority="434" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BH7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="435" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="469" priority="435" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BH7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="436" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="468" priority="436" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BH7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH13:BH17">
-    <cfRule type="containsText" dxfId="481" priority="429" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="467" priority="429" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BH13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="430" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="466" priority="430" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BH13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="479" priority="431" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="465" priority="431" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BH13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="432" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="464" priority="432" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BH13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH18:BH21">
-    <cfRule type="containsText" dxfId="477" priority="425" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="463" priority="425" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BH18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="426" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="462" priority="426" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BH18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="427" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="461" priority="427" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BH18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="428" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="460" priority="428" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BH18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH22:BH28">
-    <cfRule type="containsText" dxfId="473" priority="421" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="459" priority="421" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BH22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="422" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="458" priority="422" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BH22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="471" priority="423" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="457" priority="423" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BH22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="424" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="456" priority="424" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BH22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH37:BH64">
-    <cfRule type="containsText" dxfId="469" priority="417" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="455" priority="417" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BH37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="418" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="454" priority="418" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BH37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="467" priority="419" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="453" priority="419" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BH37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="420" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="452" priority="420" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BH37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK57:BK64">
-    <cfRule type="containsText" dxfId="465" priority="413" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="451" priority="413" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BK57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="414" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="450" priority="414" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BK57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="463" priority="415" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="449" priority="415" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BK57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="416" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="448" priority="416" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BK57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK36:BK52">
-    <cfRule type="containsText" dxfId="461" priority="409" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="447" priority="409" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BK36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="410" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="446" priority="410" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BK36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="459" priority="411" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="445" priority="411" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BK36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="412" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="444" priority="412" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BK36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK22:BK28">
-    <cfRule type="containsText" dxfId="457" priority="405" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="443" priority="405" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="406" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="442" priority="406" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="455" priority="407" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="441" priority="407" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="408" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="440" priority="408" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BK22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ1:BQ5">
-    <cfRule type="containsText" dxfId="453" priority="401" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="439" priority="401" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BQ1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="402" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="438" priority="402" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BQ1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="451" priority="403" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="437" priority="403" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BQ1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="404" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="436" priority="404" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BQ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT18:BT21">
-    <cfRule type="containsText" dxfId="449" priority="397" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="435" priority="397" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BT18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="398" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="434" priority="398" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BT18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="447" priority="399" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="433" priority="399" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BT18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="400" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="432" priority="400" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BT18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT53:BT56">
-    <cfRule type="containsText" dxfId="445" priority="393" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="431" priority="393" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BT53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="394" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="430" priority="394" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BT53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="443" priority="395" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="429" priority="395" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BT53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="396" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="428" priority="396" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BT53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW57:BW64">
-    <cfRule type="containsText" dxfId="441" priority="389" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="427" priority="389" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BW57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="390" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="426" priority="390" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BW57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="391" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="425" priority="391" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BW57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="392" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="424" priority="392" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BW57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW36:BW52">
-    <cfRule type="containsText" dxfId="437" priority="385" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="423" priority="385" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BW36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="386" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="422" priority="386" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BW36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="387" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="421" priority="387" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BW36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="388" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="420" priority="388" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BW36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW22:BW28">
-    <cfRule type="containsText" dxfId="433" priority="381" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="419" priority="381" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BW22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="382" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="418" priority="382" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BW22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="431" priority="383" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="417" priority="383" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BW22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="384" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="416" priority="384" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BW22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW13:BW17">
-    <cfRule type="containsText" dxfId="429" priority="377" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="415" priority="377" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BW13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="378" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="414" priority="378" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BW13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="427" priority="379" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="413" priority="379" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BW13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="380" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="412" priority="380" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BW13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U53:U56">
-    <cfRule type="containsText" dxfId="425" priority="373" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="411" priority="373" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",U53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="374" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="410" priority="374" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",U53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="375" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="409" priority="375" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",U53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="376" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="408" priority="376" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",U53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA57:AC64">
-    <cfRule type="containsText" dxfId="421" priority="369" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="407" priority="369" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AA57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="370" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="406" priority="370" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AA57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="419" priority="371" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="405" priority="371" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AA57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="372" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="404" priority="372" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AA57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA43:AC52 AA37:AA42">
-    <cfRule type="containsText" dxfId="417" priority="365" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="403" priority="365" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AA37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="366" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="402" priority="366" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AA37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="367" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="401" priority="367" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AA37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="368" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="400" priority="368" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AA37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AA28">
-    <cfRule type="containsText" dxfId="413" priority="361" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="399" priority="361" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AA22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="362" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="398" priority="362" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AA22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="363" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="397" priority="363" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AA22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="364" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="396" priority="364" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AA22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA17">
-    <cfRule type="containsText" dxfId="409" priority="357" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="395" priority="357" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="358" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="394" priority="358" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="407" priority="359" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="393" priority="359" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="360" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="392" priority="360" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA5">
-    <cfRule type="containsText" dxfId="405" priority="353" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="391" priority="353" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AA1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="354" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="390" priority="354" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AA1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="403" priority="355" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="389" priority="355" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AA1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="356" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="388" priority="356" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY53:AZ56">
-    <cfRule type="containsText" dxfId="401" priority="349" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="387" priority="349" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AY53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="350" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="386" priority="350" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AY53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="351" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="385" priority="351" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AY53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="352" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="384" priority="352" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AY53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY30:AZ35">
-    <cfRule type="containsText" dxfId="397" priority="345" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="383" priority="345" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AY30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="346" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="382" priority="346" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AY30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="347" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="381" priority="347" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AY30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="348" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="380" priority="348" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AY30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY18:AZ21">
-    <cfRule type="containsText" dxfId="393" priority="341" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="379" priority="341" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AY18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="342" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="378" priority="342" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AY18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="391" priority="343" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="377" priority="343" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AY18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="344" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="376" priority="344" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AY18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY6:AZ6">
-    <cfRule type="containsText" dxfId="389" priority="337" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="375" priority="337" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AY6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="338" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="374" priority="338" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AY6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="339" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="373" priority="339" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AY6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="340" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="372" priority="340" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AY6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN57:BN64">
-    <cfRule type="containsText" dxfId="385" priority="333" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="371" priority="333" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BN57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="334" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="370" priority="334" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BN57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="335" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="369" priority="335" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BN57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="336" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="368" priority="336" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BN57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN37:BN52">
-    <cfRule type="containsText" dxfId="381" priority="329" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="367" priority="329" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BN37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="330" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="366" priority="330" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BN37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="331" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="365" priority="331" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BN37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="332" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="364" priority="332" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BN37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN36">
-    <cfRule type="containsText" dxfId="377" priority="325" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="363" priority="325" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BN36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="326" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="362" priority="326" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BN36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="327" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="361" priority="327" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BN36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="328" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="360" priority="328" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BN36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN22:BN28">
-    <cfRule type="containsText" dxfId="373" priority="321" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="359" priority="321" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BN22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="322" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="358" priority="322" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BN22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="323" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="357" priority="323" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BN22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="324" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="356" priority="324" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BN22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK13:BK17">
-    <cfRule type="containsText" dxfId="369" priority="317" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="355" priority="317" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BK13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="318" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="354" priority="318" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BK13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="319" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="353" priority="319" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BK13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="320" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="352" priority="320" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BK13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK1:BK5">
-    <cfRule type="containsText" dxfId="365" priority="313" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="351" priority="313" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="314" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="350" priority="314" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="315" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="349" priority="315" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="316" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="348" priority="316" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ36">
-    <cfRule type="containsText" dxfId="361" priority="309" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="347" priority="309" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BQ36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="310" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="346" priority="310" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BQ36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="311" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="345" priority="311" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BQ36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="312" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="344" priority="312" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BQ36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT57:BT64">
-    <cfRule type="containsText" dxfId="357" priority="305" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="343" priority="305" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BT57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="306" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="342" priority="306" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BT57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="307" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="341" priority="307" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BT57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="308" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="340" priority="308" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BT57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT37:BT52">
-    <cfRule type="containsText" dxfId="353" priority="301" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="339" priority="301" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BT37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="302" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="338" priority="302" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BT37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="303" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="337" priority="303" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BT37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="304" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="336" priority="304" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BT37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT22:BT28">
-    <cfRule type="containsText" dxfId="349" priority="297" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="335" priority="297" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BT22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="298" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="334" priority="298" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BT22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="299" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="333" priority="299" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BT22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="300" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="332" priority="300" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BT22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT1:BT5">
-    <cfRule type="containsText" dxfId="345" priority="293" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="331" priority="293" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BT1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="294" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="330" priority="294" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BT1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="295" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="329" priority="295" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BT1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="296" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="328" priority="296" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J42">
-    <cfRule type="containsText" dxfId="341" priority="289" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="327" priority="289" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="290" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="326" priority="290" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="291" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="325" priority="291" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="292" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="324" priority="292" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S6">
-    <cfRule type="containsText" dxfId="337" priority="285" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="323" priority="285" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="286" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="322" priority="286" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="287" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="321" priority="287" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="288" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="320" priority="288" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S15">
-    <cfRule type="containsText" dxfId="333" priority="281" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="319" priority="281" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="282" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="318" priority="282" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="283" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="317" priority="283" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="284" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="316" priority="284" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:S26">
-    <cfRule type="containsText" dxfId="329" priority="277" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="315" priority="277" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="278" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="314" priority="278" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="279" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="313" priority="279" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="280" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="312" priority="280" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:S42">
-    <cfRule type="containsText" dxfId="325" priority="273" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="311" priority="273" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="274" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="310" priority="274" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="275" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="309" priority="275" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="276" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="308" priority="276" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X6">
-    <cfRule type="containsText" dxfId="321" priority="269" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="307" priority="269" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",X1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="270" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="306" priority="270" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",X1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="271" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="305" priority="271" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",X1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="272" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="304" priority="272" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X42">
-    <cfRule type="containsText" dxfId="317" priority="265" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="303" priority="265" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",X12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="266" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="302" priority="266" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",X12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="267" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="301" priority="267" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",X12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="268" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="300" priority="268" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",X12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16:AB39">
-    <cfRule type="containsText" dxfId="313" priority="261" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="299" priority="261" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="262" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="298" priority="262" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="263" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="297" priority="263" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="264" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="296" priority="264" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG6">
-    <cfRule type="containsText" dxfId="309" priority="257" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="295" priority="257" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AG1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="258" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="294" priority="258" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AG1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="259" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="293" priority="259" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AG1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="260" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="292" priority="260" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AG15">
-    <cfRule type="containsText" dxfId="305" priority="253" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="291" priority="253" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AG12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="254" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="290" priority="254" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AG12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="255" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="289" priority="255" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AG12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="256" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="288" priority="256" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AG12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AL6 AK7:AK11">
-    <cfRule type="containsText" dxfId="301" priority="249" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="287" priority="249" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="250" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="286" priority="250" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="251" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="285" priority="251" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AK1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="252" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="284" priority="252" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7:AP11">
-    <cfRule type="containsText" dxfId="297" priority="245" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="283" priority="245" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="246" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="282" priority="246" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="247" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="281" priority="247" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="248" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="280" priority="248" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP16:AP24">
-    <cfRule type="containsText" dxfId="293" priority="241" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="279" priority="241" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="242" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="278" priority="242" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="243" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="277" priority="243" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="244" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="276" priority="244" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP27:AP39">
-    <cfRule type="containsText" dxfId="289" priority="237" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="275" priority="237" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="238" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="274" priority="238" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="239" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="273" priority="239" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="240" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="272" priority="240" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT16:AT39">
-    <cfRule type="containsText" dxfId="285" priority="233" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="271" priority="233" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AT16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="234" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="270" priority="234" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AT16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="235" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="269" priority="235" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AT16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="236" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="268" priority="236" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AT16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1:AW6">
-    <cfRule type="containsText" dxfId="281" priority="229" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="267" priority="229" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="230" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="266" priority="230" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="231" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="265" priority="231" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="232" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="264" priority="232" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW16:AW24">
-    <cfRule type="containsText" dxfId="277" priority="225" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="263" priority="225" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="226" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="262" priority="226" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="227" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="261" priority="227" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="228" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="260" priority="228" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW27:AW39">
-    <cfRule type="containsText" dxfId="273" priority="221" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="259" priority="221" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AW27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="222" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="258" priority="222" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AW27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="223" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="257" priority="223" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AW27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="224" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="256" priority="224" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AW27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC12:BC15">
-    <cfRule type="containsText" dxfId="269" priority="217" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="255" priority="217" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="218" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="254" priority="218" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="219" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="253" priority="219" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="220" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="252" priority="220" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BC12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC40:BC42">
-    <cfRule type="containsText" dxfId="265" priority="213" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="251" priority="213" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="214" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="250" priority="214" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="215" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="249" priority="215" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="216" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="248" priority="216" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BC40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K15">
-    <cfRule type="containsText" dxfId="261" priority="209" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="247" priority="209" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="210" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="246" priority="210" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="211" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="245" priority="211" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="212" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="244" priority="212" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP1:AP6">
-    <cfRule type="containsText" dxfId="257" priority="205" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="243" priority="205" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="206" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="242" priority="206" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="207" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="241" priority="207" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="208" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="240" priority="208" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC7:BC11">
-    <cfRule type="containsText" dxfId="253" priority="201" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="239" priority="201" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="202" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="238" priority="202" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="203" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="237" priority="203" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="204" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="236" priority="204" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BC7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O39">
-    <cfRule type="containsText" dxfId="249" priority="197" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="235" priority="197" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="198" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="234" priority="198" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="199" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="233" priority="199" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="200" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="232" priority="200" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:S39">
-    <cfRule type="containsText" dxfId="245" priority="193" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="231" priority="193" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="194" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="230" priority="194" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="195" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="229" priority="195" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="196" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="228" priority="196" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S24">
-    <cfRule type="containsText" dxfId="241" priority="189" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="227" priority="189" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="190" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="226" priority="190" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="191" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="225" priority="191" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="192" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="224" priority="192" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AB6">
-    <cfRule type="containsText" dxfId="237" priority="185" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="223" priority="185" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="186" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="222" priority="186" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="187" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="221" priority="187" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="188" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="220" priority="188" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12:AB15">
-    <cfRule type="containsText" dxfId="233" priority="181" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="219" priority="181" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="182" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="218" priority="182" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="183" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="217" priority="183" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="184" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="216" priority="184" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40:AB42">
-    <cfRule type="containsText" dxfId="229" priority="177" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="215" priority="177" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AB40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="178" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="214" priority="178" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AB40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="179" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="213" priority="179" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AB40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="180" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="212" priority="180" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AB40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP40:AP42">
-    <cfRule type="containsText" dxfId="225" priority="173" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="211" priority="173" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="174" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="210" priority="174" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="175" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="209" priority="175" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="176" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="208" priority="176" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AP26">
-    <cfRule type="containsText" dxfId="221" priority="169" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="207" priority="169" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="170" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="206" priority="170" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="171" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="205" priority="171" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="172" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="204" priority="172" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12:AP15">
-    <cfRule type="containsText" dxfId="217" priority="165" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="203" priority="165" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AP12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="166" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="202" priority="166" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AP12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="167" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="201" priority="167" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AP12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="168" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="200" priority="168" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AP12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT15">
-    <cfRule type="containsText" dxfId="213" priority="161" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="199" priority="161" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AT1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="162" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="198" priority="162" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AT1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="163" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="197" priority="163" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AT1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="164" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="196" priority="164" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AT1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI7:BI11">
-    <cfRule type="containsText" dxfId="209" priority="157" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="195" priority="157" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="158" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="194" priority="158" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="159" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="193" priority="159" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="160" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="192" priority="160" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BI7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI25:BI26">
-    <cfRule type="containsText" dxfId="205" priority="153" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="191" priority="153" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BI25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="154" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="190" priority="154" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BI25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="155" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="189" priority="155" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BI25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="156" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="188" priority="156" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BI25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:O42">
-    <cfRule type="containsText" dxfId="201" priority="149" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="187" priority="149" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",O40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="150" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="186" priority="150" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",O40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="151" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="185" priority="151" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",O40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="152" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="184" priority="152" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",O40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S11">
-    <cfRule type="containsText" dxfId="197" priority="145" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="183" priority="145" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",S7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="146" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="182" priority="146" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",S7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="147" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="181" priority="147" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",S7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="148" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="180" priority="148" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",S7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC25:BC26">
-    <cfRule type="containsText" dxfId="193" priority="141" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="179" priority="141" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",BC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="142" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="178" priority="142" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",BC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="143" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="177" priority="143" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",BC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="144" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="176" priority="144" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",BC25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H42">
-    <cfRule type="containsText" dxfId="189" priority="137" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="175" priority="137" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="138" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="174" priority="138" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="139" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="173" priority="139" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="140" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="172" priority="140" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:N42">
-    <cfRule type="containsText" dxfId="185" priority="133" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="171" priority="133" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="134" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="170" priority="134" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="135" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="169" priority="135" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="136" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="168" priority="136" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q42">
-    <cfRule type="containsText" dxfId="181" priority="129" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="167" priority="129" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="130" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="166" priority="130" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="131" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="165" priority="131" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="132" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="164" priority="132" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Q12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T11">
-    <cfRule type="containsText" dxfId="177" priority="125" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="163" priority="125" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="126" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="162" priority="126" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="127" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="161" priority="127" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="128" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="160" priority="128" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:T39">
-    <cfRule type="containsText" dxfId="173" priority="121" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="159" priority="121" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="122" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="158" priority="122" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="123" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="157" priority="123" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="124" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="156" priority="124" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z11">
-    <cfRule type="containsText" dxfId="169" priority="117" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="155" priority="117" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="118" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="154" priority="118" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="119" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="153" priority="119" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="120" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="152" priority="120" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16:AC24">
-    <cfRule type="containsText" dxfId="165" priority="113" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="151" priority="113" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="114" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="150" priority="114" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="115" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="149" priority="115" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="116" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="148" priority="116" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27:AC39">
-    <cfRule type="containsText" dxfId="161" priority="109" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="147" priority="109" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="110" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="146" priority="110" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="111" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="145" priority="111" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="112" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="144" priority="112" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL7:AL11">
-    <cfRule type="containsText" dxfId="157" priority="105" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="143" priority="105" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AL7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="106" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="142" priority="106" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AL7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="107" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="141" priority="107" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AL7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="108" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="140" priority="108" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AL7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO12:AO15">
-    <cfRule type="containsText" dxfId="153" priority="101" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="139" priority="101" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="102" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="138" priority="102" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="103" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="137" priority="103" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="104" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="136" priority="104" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO40:AO42">
-    <cfRule type="containsText" dxfId="149" priority="97" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="135" priority="97" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="98" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="134" priority="98" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="99" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="133" priority="99" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="100" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="132" priority="100" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H15">
-    <cfRule type="containsText" dxfId="145" priority="93" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="131" priority="93" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",H12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="94" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="130" priority="94" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",H12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="95" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="129" priority="95" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",H12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="96" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="128" priority="96" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",H12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AC6">
-    <cfRule type="containsText" dxfId="141" priority="89" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="127" priority="89" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="90" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="126" priority="90" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="91" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="125" priority="91" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="92" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="124" priority="92" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AO11">
-    <cfRule type="containsText" dxfId="137" priority="85" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="123" priority="85" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="86" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="122" priority="86" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="87" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="121" priority="87" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="88" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="120" priority="88" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K24">
-    <cfRule type="containsText" dxfId="133" priority="81" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="119" priority="81" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="82" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="118" priority="82" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="83" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="117" priority="83" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="84" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="116" priority="84" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K39">
-    <cfRule type="containsText" dxfId="129" priority="77" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="115" priority="77" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="78" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="114" priority="78" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="79" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="113" priority="79" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="80" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="112" priority="80" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N39">
-    <cfRule type="containsText" dxfId="125" priority="73" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="111" priority="73" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="74" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="110" priority="74" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="75" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="109" priority="75" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="76" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="108" priority="76" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T40:T42">
-    <cfRule type="containsText" dxfId="121" priority="69" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="107" priority="69" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="70" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="106" priority="70" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="71" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="105" priority="71" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="72" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="104" priority="72" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T15">
-    <cfRule type="containsText" dxfId="117" priority="65" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="103" priority="65" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="66" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="102" priority="66" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="67" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="101" priority="67" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="68" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="100" priority="68" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T6">
-    <cfRule type="containsText" dxfId="113" priority="61" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="99" priority="61" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="62" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="98" priority="62" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="63" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="97" priority="63" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="64" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="96" priority="64" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC15">
-    <cfRule type="containsText" dxfId="109" priority="57" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="95" priority="57" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="58" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="94" priority="58" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="59" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="93" priority="59" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="60" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="92" priority="60" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC25:AC26">
-    <cfRule type="containsText" dxfId="105" priority="53" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="91" priority="53" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="54" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="90" priority="54" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="55" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="56" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="88" priority="56" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC40:AC42">
-    <cfRule type="containsText" dxfId="101" priority="49" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="87" priority="49" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="50" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="86" priority="50" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="51" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="85" priority="51" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AC40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="52" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="84" priority="52" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AC40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF15">
-    <cfRule type="containsText" dxfId="97" priority="45" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="83" priority="45" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="46" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="82" priority="46" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="47" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="81" priority="47" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AF1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="48" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="80" priority="48" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AF1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K26">
-    <cfRule type="containsText" dxfId="93" priority="41" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="79" priority="41" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="42" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="78" priority="42" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="43" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="44" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="76" priority="44" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:K42">
-    <cfRule type="containsText" dxfId="89" priority="37" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="75" priority="37" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="38" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="39" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="73" priority="39" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="40" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="72" priority="40" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N11">
-    <cfRule type="containsText" dxfId="85" priority="33" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="71" priority="33" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="34" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="70" priority="34" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="35" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="69" priority="35" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="36" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="68" priority="36" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:Z15">
-    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="67" priority="29" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="30" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="66" priority="30" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="32" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="64" priority="32" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16:Z24">
-    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="26" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="62" priority="26" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="27" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="28" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="60" priority="28" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27:Z42">
-    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="59" priority="21" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Z27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="22" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="58" priority="22" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Z27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="57" priority="23" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Z27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="56" priority="24" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Z27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AI11">
-    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AI7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="20" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="52" priority="20" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AI7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AO26">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AO25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="50" priority="14" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AO25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AO25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="48" priority="16" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AO25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD9 A12:XFD15 B10:XFD11 A25:XFD26 B16:XFD24 A40:XFD1048576 B27:XFD39">
-    <cfRule type="beginsWith" dxfId="61" priority="10" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="47" priority="10" operator="beginsWith" text="TargetType">
       <formula>LEFT(A1,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="11" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="46" priority="11" operator="beginsWith" text="Name">
       <formula>LEFT(A1,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="12" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="45" priority="12" operator="beginsWith" text="TargetName">
       <formula>LEFT(A1,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="beginsWith" dxfId="58" priority="7" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="44" priority="7" operator="beginsWith" text="TargetType">
       <formula>LEFT(A10,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="8" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="43" priority="8" operator="beginsWith" text="Name">
       <formula>LEFT(A10,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="9" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="42" priority="9" operator="beginsWith" text="TargetName">
       <formula>LEFT(A10,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A24">
-    <cfRule type="beginsWith" dxfId="55" priority="4" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="41" priority="4" operator="beginsWith" text="TargetType">
       <formula>LEFT(A16,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="5" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="40" priority="5" operator="beginsWith" text="Name">
       <formula>LEFT(A16,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="53" priority="6" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="39" priority="6" operator="beginsWith" text="TargetName">
       <formula>LEFT(A16,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A39">
-    <cfRule type="beginsWith" dxfId="52" priority="1" operator="beginsWith" text="TargetType">
+    <cfRule type="beginsWith" dxfId="38" priority="1" operator="beginsWith" text="TargetType">
       <formula>LEFT(A27,LEN("TargetType"))="TargetType"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="51" priority="2" operator="beginsWith" text="Name">
+    <cfRule type="beginsWith" dxfId="37" priority="2" operator="beginsWith" text="Name">
       <formula>LEFT(A27,LEN("Name"))="Name"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="3" operator="beginsWith" text="TargetName">
+    <cfRule type="beginsWith" dxfId="36" priority="3" operator="beginsWith" text="TargetName">
       <formula>LEFT(A27,LEN("TargetName"))="TargetName"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67443,128 +67370,128 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A78:XFD81 A84:XFD1048576 AS82:XFD83 C82:AO83 AS23:XFD30 C37:AF42 AJ41:XFD42 AS37:XFD40 AG37:AO40 A43:XFD58 AS59:XFD77 C59:AO77 AJ23:AO30 AJ31:XFD32 P16:P32 AJ1:XFD22 C1:G36 AA1:AI32 M1:M15 I1:L32 I33:M36 O33:P36 O1:P15 U1:V36 X16:X32 X33:XFD36 X1:Z15 K1:K36 R1:S36">
-    <cfRule type="containsText" dxfId="49" priority="73" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="35" priority="73" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="74" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="75" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="76" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="32" priority="76" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG41:AI42">
-    <cfRule type="containsText" dxfId="45" priority="69" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="31" priority="69" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",AG41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="70" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="30" priority="70" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",AG41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="71" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="29" priority="71" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",AG41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="72" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="28" priority="72" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",AG41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M32 O16:O32">
-    <cfRule type="containsText" dxfId="41" priority="65" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="27" priority="65" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",M16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="66" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="26" priority="66" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",M16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="67" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",M16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="68" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="24" priority="68" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",M16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:Z32">
-    <cfRule type="containsText" dxfId="37" priority="61" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="23" priority="61" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Y16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="62" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="22" priority="62" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Y16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="63" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="21" priority="63" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Y16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="64" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="20" priority="64" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Y16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H36">
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="18" priority="38" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="39" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="40" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="16" priority="40" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N36">
-    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="34" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="14" priority="34" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="12" priority="36" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T36">
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="10" priority="30" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W36">
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="5" priority="27" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="4" priority="28" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q36">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="boolean">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="boolean">
       <formula>NOT(ISERROR(SEARCH("boolean",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="identifier">
+    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="identifier">
       <formula>NOT(ISERROR(SEARCH("identifier",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="number">
+    <cfRule type="containsText" dxfId="1" priority="23" operator="containsText" text="number">
       <formula>NOT(ISERROR(SEARCH("number",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="string">
+    <cfRule type="containsText" dxfId="0" priority="24" operator="containsText" text="string">
       <formula>NOT(ISERROR(SEARCH("string",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
